--- a/data/hotels_by_city/Dallas/Dallas_shard_565.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_565.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="292">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,806 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r454519212-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>56463</t>
+  </si>
+  <si>
+    <t>106478</t>
+  </si>
+  <si>
+    <t>454519212</t>
+  </si>
+  <si>
+    <t>01/24/2017</t>
+  </si>
+  <si>
+    <t>Have stayed here many times</t>
+  </si>
+  <si>
+    <t>As most people state, you kinda get what you pay for.  It is on a very busy freeway, there is a restaurant next to it that competes for parking and parking in general can be sketchy.  I have had rooms in several areas of the motel and have not had any bad experiences.  If you have trouble with noise, this motel may not be the best for you.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r409766133-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>409766133</t>
+  </si>
+  <si>
+    <t>08/23/2016</t>
+  </si>
+  <si>
+    <t>It didn't even rate a barely OK...never again here!</t>
+  </si>
+  <si>
+    <t>The worst Motel 6 I've ever stayed at....horrible experience...room barely furnished or even bedspreads on the bed, in total disrepair..parking lot floods when it rains...other guests woke up us in the middle of the night. Complained to management, unwilling to do anything...in the morning husband went back to office and was told to call corporate. Were given a claim number, but that it would ultimately be up to the manager since it is a franchise..I went back to the office a few minutes ago, the manager was uncooperative and unwilling to do anything about compensation for our troubles.  We have been going to Motel 6's for over 6 years and we never experienced any of this. Disgusting!  I would never stay here if I were you!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>The worst Motel 6 I've ever stayed at....horrible experience...room barely furnished or even bedspreads on the bed, in total disrepair..parking lot floods when it rains...other guests woke up us in the middle of the night. Complained to management, unwilling to do anything...in the morning husband went back to office and was told to call corporate. Were given a claim number, but that it would ultimately be up to the manager since it is a franchise..I went back to the office a few minutes ago, the manager was uncooperative and unwilling to do anything about compensation for our troubles.  We have been going to Motel 6's for over 6 years and we never experienced any of this. Disgusting!  I would never stay here if I were you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r403087996-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>403087996</t>
+  </si>
+  <si>
+    <t>08/09/2016</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>The most disgusting motel that I have ever stayed in. Nasty by all common standards. In need of major repairs. Water was cut off without notification. Had to call corporate. Mold on ceiling of bathroom. Unsanitary floors, dirty corners.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r359530956-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>359530956</t>
+  </si>
+  <si>
+    <t>03/28/2016</t>
+  </si>
+  <si>
+    <t>Just ok</t>
+  </si>
+  <si>
+    <t>Before my arrival date I called and was told this property had no microwave or fridge. That was heartbreaking because I thought I saw a microwave in a previous review. Check in went smooth, just 3-5minutes &amp; there was no incidental fee, which most hotels charge so that was a plus. When I got to my room, I was surprised to see a microwave &amp; fridge &amp; they looked new! The room however was straight outta the 80's but they are remodeling. And when I say that...the noise all day until 9pm, electric saws, hammering, throwing stuff in the large dumpster! I couldn't sleep. I had no problem with anyone I've encountered but most guests looked like they were having extremely hard times. I guess since this was one of the cheapest places to stay. I made reservations for myself only &amp; to behold, all I got from housekeeping was 1 washcloth! I thought 2 was standard. Denny's is next door, which was great to have. There's a soda machine on property but looked like I didn't wanna try my money in it. Also they lock the door to the lobby area overnight so it felt creepy when I was leaving at 5am. Oh and I killed 2 roaches in my room.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Before my arrival date I called and was told this property had no microwave or fridge. That was heartbreaking because I thought I saw a microwave in a previous review. Check in went smooth, just 3-5minutes &amp; there was no incidental fee, which most hotels charge so that was a plus. When I got to my room, I was surprised to see a microwave &amp; fridge &amp; they looked new! The room however was straight outta the 80's but they are remodeling. And when I say that...the noise all day until 9pm, electric saws, hammering, throwing stuff in the large dumpster! I couldn't sleep. I had no problem with anyone I've encountered but most guests looked like they were having extremely hard times. I guess since this was one of the cheapest places to stay. I made reservations for myself only &amp; to behold, all I got from housekeeping was 1 washcloth! I thought 2 was standard. Denny's is next door, which was great to have. There's a soda machine on property but looked like I didn't wanna try my money in it. Also they lock the door to the lobby area overnight so it felt creepy when I was leaving at 5am. Oh and I killed 2 roaches in my room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r343177990-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>343177990</t>
+  </si>
+  <si>
+    <t>01/27/2016</t>
+  </si>
+  <si>
+    <t>great for one night</t>
+  </si>
+  <si>
+    <t>it was a good stay.  The room was clean the bed was soft and i got a good nights sleep.  The motel was right off of 75 in plano and easy to get in and out of.  The staff was friendly and they got me a room quick.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r339199075-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>339199075</t>
+  </si>
+  <si>
+    <t>01/11/2016</t>
+  </si>
+  <si>
+    <t>Dirty/Bugs</t>
+  </si>
+  <si>
+    <t>Don't stay there. Don't stay there! the place is filthy and there are roaches everywhere. Ugggg. It is NOT renovated like they claim and it should actually be shut down. I stayed cause I couldn't get a refund anymore. Very uncomfortable.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r307940957-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>307940957</t>
+  </si>
+  <si>
+    <t>09/07/2015</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE</t>
+  </si>
+  <si>
+    <t>This place is not for anyone to stay here. Very much in 'busy' type establishment. There was 'traffic' outside our room until way after 3 am and they really left the light on for you. Rooms in bad clean up and bed had metal sticking out the bottom.  Skip and go some where else.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Dallas - Plano - Southeast, responded to this reviewResponded September 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2015</t>
+  </si>
+  <si>
+    <t>This place is not for anyone to stay here. Very much in 'busy' type establishment. There was 'traffic' outside our room until way after 3 am and they really left the light on for you. Rooms in bad clean up and bed had metal sticking out the bottom.  Skip and go some where else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r297368362-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>297368362</t>
+  </si>
+  <si>
+    <t>08/09/2015</t>
+  </si>
+  <si>
+    <t>Horrible: Senior Citizen Charged TWICE for room with NO SMOKE ALARM, BROKEN SECURITY LATCH, ROACHES &amp; more.</t>
+  </si>
+  <si>
+    <t>I am a senior citizen &amp; I had a weekly rental at this Motel 6 with an AARP discount.
+Miguel checked me in at the front desk of the motel. 
+He was rude when I requested he fix several safety &amp; security hazards issues.
+He called the police because I insisted he call maintenance while I was at the front desk. The police came out &amp; said that all the issues are civil matters.
+So I checked out off my room.
+Miguel stated, in front of the police officers, that he was giving me a refund when I checked out.
+However, when I checked my account, he had charged my credit card twice!
+No refund was given.
+Problems I Requested to be remedied:
+1.)  No Smoke Alarm! There is a hole in the wall with wires hanging out where the smoke alarm had been. 
+2.)  Security Latch was broken.
+3.)  Roaches in the room..
+4.)  Mini fridge stopped working sometime during the night.
+5.)  Air conditioner stopped cooling.  
+Miguel's Response to most issues:  "Maintenance is Busy"   
+Solutions: Ignore &amp; Avoid Issues
+1.)  No Smoke Alarm:           Ignored:     Issue was never addressed
+2.)  Broken Security Latch:   Ignored:     Issue was never addressed.
+3.)  Roaches:           Sprayed Foul Bug Spray, leaving the stench of Chemicals.
+            Roaches Remained.
+4.)  Mini Fridge not working:        Miguel stated 4 different times he had called maintenance about the fridge &amp;  it would be replaced or fixed ASAP.  
+               a.)  9+ hrs...I am a senior citizen &amp; I had a weekly rental at this Motel 6 with an AARP discount.Miguel checked me in at the front desk of the motel. He was rude when I requested he fix several safety &amp; security hazards issues.He called the police because I insisted he call maintenance while I was at the front desk. The police came out &amp; said that all the issues are civil matters.So I checked out off my room.Miguel stated, in front of the police officers, that he was giving me a refund when I checked out.However, when I checked my account, he had charged my credit card twice!No refund was given.Problems I Requested to be remedied:1.)  No Smoke Alarm! There is a hole in the wall with wires hanging out where the smoke alarm had been. 2.)  Security Latch was broken.3.)  Roaches in the room..4.)  Mini fridge stopped working sometime during the night.5.)  Air conditioner stopped cooling.  Miguel's Response to most issues:  "Maintenance is Busy"   Solutions: Ignore &amp; Avoid Issues1.)  No Smoke Alarm:           Ignored:     Issue was never addressed2.)  Broken Security Latch:   Ignored:     Issue was never addressed.3.)  Roaches:           Sprayed Foul Bug Spray, leaving the stench of Chemicals.            Roaches Remained.4.)  Mini Fridge not working:        Miguel stated 4 different times he had called maintenance about the fridge &amp;  it would be replaced or fixed ASAP.                 a.)  9+ hrs later, maintenance came to my room, flipped a switch &amp;  the fridge came on.               b.)  I asked why it took so long &amp; was told no maintenance personal were on the property when I reported the problem, so they weren't aware of the issue.               c.) By the time maintenance found out and came to my room, all of my food had already spoiled.5.) Air Conditioner   not cooling:   Maintenance came, found AC to be frozen inside. So they:                     a.) Turned the AC off while it was 100+ Degrees outside!                    b.) Put towels under the AC unit to catch the dripping water.  c.) They never checked on the AC again.                     d.) They never fixed the cause of the AC malfunction.If you want Over-charges, No Smoke Alarm, Broken Security Latch, Bad Attitudes &amp; Roaches, then this is the place for you.This was the most horrendous hotel experience. Stay awayMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Dallas - Plano - Southeast, responded to this reviewResponded August 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2015</t>
+  </si>
+  <si>
+    <t>I am a senior citizen &amp; I had a weekly rental at this Motel 6 with an AARP discount.
+Miguel checked me in at the front desk of the motel. 
+He was rude when I requested he fix several safety &amp; security hazards issues.
+He called the police because I insisted he call maintenance while I was at the front desk. The police came out &amp; said that all the issues are civil matters.
+So I checked out off my room.
+Miguel stated, in front of the police officers, that he was giving me a refund when I checked out.
+However, when I checked my account, he had charged my credit card twice!
+No refund was given.
+Problems I Requested to be remedied:
+1.)  No Smoke Alarm! There is a hole in the wall with wires hanging out where the smoke alarm had been. 
+2.)  Security Latch was broken.
+3.)  Roaches in the room..
+4.)  Mini fridge stopped working sometime during the night.
+5.)  Air conditioner stopped cooling.  
+Miguel's Response to most issues:  "Maintenance is Busy"   
+Solutions: Ignore &amp; Avoid Issues
+1.)  No Smoke Alarm:           Ignored:     Issue was never addressed
+2.)  Broken Security Latch:   Ignored:     Issue was never addressed.
+3.)  Roaches:           Sprayed Foul Bug Spray, leaving the stench of Chemicals.
+            Roaches Remained.
+4.)  Mini Fridge not working:        Miguel stated 4 different times he had called maintenance about the fridge &amp;  it would be replaced or fixed ASAP.  
+               a.)  9+ hrs...I am a senior citizen &amp; I had a weekly rental at this Motel 6 with an AARP discount.Miguel checked me in at the front desk of the motel. He was rude when I requested he fix several safety &amp; security hazards issues.He called the police because I insisted he call maintenance while I was at the front desk. The police came out &amp; said that all the issues are civil matters.So I checked out off my room.Miguel stated, in front of the police officers, that he was giving me a refund when I checked out.However, when I checked my account, he had charged my credit card twice!No refund was given.Problems I Requested to be remedied:1.)  No Smoke Alarm! There is a hole in the wall with wires hanging out where the smoke alarm had been. 2.)  Security Latch was broken.3.)  Roaches in the room..4.)  Mini fridge stopped working sometime during the night.5.)  Air conditioner stopped cooling.  Miguel's Response to most issues:  "Maintenance is Busy"   Solutions: Ignore &amp; Avoid Issues1.)  No Smoke Alarm:           Ignored:     Issue was never addressed2.)  Broken Security Latch:   Ignored:     Issue was never addressed.3.)  Roaches:           Sprayed Foul Bug Spray, leaving the stench of Chemicals.            Roaches Remained.4.)  Mini Fridge not working:        Miguel stated 4 different times he had called maintenance about the fridge &amp;  it would be replaced or fixed ASAP.                 a.)  9+ hrs later, maintenance came to my room, flipped a switch &amp;  the fridge came on.               b.)  I asked why it took so long &amp; was told no maintenance personal were on the property when I reported the problem, so they weren't aware of the issue.               c.) By the time maintenance found out and came to my room, all of my food had already spoiled.5.) Air Conditioner   not cooling:   Maintenance came, found AC to be frozen inside. So they:                     a.) Turned the AC off while it was 100+ Degrees outside!                    b.) Put towels under the AC unit to catch the dripping water.  c.) They never checked on the AC again.                     d.) They never fixed the cause of the AC malfunction.If you want Over-charges, No Smoke Alarm, Broken Security Latch, Bad Attitudes &amp; Roaches, then this is the place for you.This was the most horrendous hotel experience. Stay awayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r279222376-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>279222376</t>
+  </si>
+  <si>
+    <t>06/10/2015</t>
+  </si>
+  <si>
+    <t>Worst Experience Ever..had to call cops on OWNER.</t>
+  </si>
+  <si>
+    <t>If you go here and complain to front desk about the horrible conditions of this hotel you will get a visit from the owner who will yell, cuss and get in your face while your kids are watching.  I ended up having to call 911 while my husband was literally trying to push this crazy man out of my face. The police finally got there and told us this happens quiet often and hes a "hothead"  We only got half our money back but was well worth it to leave his hell hole.  First of all, this is NOT the hotel in the pictures. It might be one room he updated just to say its updated but trust me its not the rooms we seen. ITS DIRTY (there was hair and dirt in bathroom when we arrived)LIGHTS DIDN'T WORKPLUGS TORN OUT OF WALL CAUSING FIRE HAZARD'SMOKE ALARM TAKEN DOWNROACHESPROSTITUTES LETTING GUESTS KNOW THEY WILL PARTY FOR A PRICEBOTTOM OF BATHROOM DOOR DAMAGEDMOLD IN BATHROOMMOLD ON FURNITURENO PHONEI have never had an experience like this in my life. This man should be required by the city to shut this place down and to get some anger management and business management skills.  Please do not waste your money or time on this horrible place.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>If you go here and complain to front desk about the horrible conditions of this hotel you will get a visit from the owner who will yell, cuss and get in your face while your kids are watching.  I ended up having to call 911 while my husband was literally trying to push this crazy man out of my face. The police finally got there and told us this happens quiet often and hes a "hothead"  We only got half our money back but was well worth it to leave his hell hole.  First of all, this is NOT the hotel in the pictures. It might be one room he updated just to say its updated but trust me its not the rooms we seen. ITS DIRTY (there was hair and dirt in bathroom when we arrived)LIGHTS DIDN'T WORKPLUGS TORN OUT OF WALL CAUSING FIRE HAZARD'SMOKE ALARM TAKEN DOWNROACHESPROSTITUTES LETTING GUESTS KNOW THEY WILL PARTY FOR A PRICEBOTTOM OF BATHROOM DOOR DAMAGEDMOLD IN BATHROOMMOLD ON FURNITURENO PHONEI have never had an experience like this in my life. This man should be required by the city to shut this place down and to get some anger management and business management skills.  Please do not waste your money or time on this horrible place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r216639088-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>216639088</t>
+  </si>
+  <si>
+    <t>07/21/2014</t>
+  </si>
+  <si>
+    <t>Very inexpensive, kind enough front desk, but very dirty and worn out.</t>
+  </si>
+  <si>
+    <t>I had a volleyball tournament this past weekend in Allen, so we found this hotel to stay in on the inexpensive list. I regret the decision.
+Checkin in, the front desk staff was kind enough. He did his job, we got our room keys, and went on our way. Pulling around the parking lot, however, we realized that this place was rough. Lights were flickering, the front desk advised us to use all locks on the doors (fair enough, bad people exist), and there was a good amount of shouting going on from different directions as we were unloading the car.
+Once we got into the room, the stench of cigarette smoke, bad plumbing, and saturated air coming from the old a/c unit was overwhelming. Mind you, we had a "smoke free" room. Nope. It was stank. "Alright, so it stinks a little. No big deal." Well, then we pulled the sandpaper comforters off the beds in order to check out the bedbug situation, and to our surprise there was not any obvious signs of bedbugs! Nice. 
+Next, the bathroom. Oh boy, the bathroom. Well, it's dirty. Big time dirty. It had constant hot water, so that was nice, but there were short and curly's all over the bathtub and scattered around on the toilet. I assume they cleaned before we got there, but it was not a thorough job. The edging of the tub and basically anywhere that there...I had a volleyball tournament this past weekend in Allen, so we found this hotel to stay in on the inexpensive list. I regret the decision.Checkin in, the front desk staff was kind enough. He did his job, we got our room keys, and went on our way. Pulling around the parking lot, however, we realized that this place was rough. Lights were flickering, the front desk advised us to use all locks on the doors (fair enough, bad people exist), and there was a good amount of shouting going on from different directions as we were unloading the car.Once we got into the room, the stench of cigarette smoke, bad plumbing, and saturated air coming from the old a/c unit was overwhelming. Mind you, we had a "smoke free" room. Nope. It was stank. "Alright, so it stinks a little. No big deal." Well, then we pulled the sandpaper comforters off the beds in order to check out the bedbug situation, and to our surprise there was not any obvious signs of bedbugs! Nice. Next, the bathroom. Oh boy, the bathroom. Well, it's dirty. Big time dirty. It had constant hot water, so that was nice, but there were short and curly's all over the bathtub and scattered around on the toilet. I assume they cleaned before we got there, but it was not a thorough job. The edging of the tub and basically anywhere that there might have once been a calked seem was now an open crevice with black mildew prevalent; that explains the musty bathroom smell. So let's turn on the vent to get some stank out. It sounded like every fan blade was broken and banging against the ceiling. Crazy loud. Explains why it's most likely never used and the reason for all the moisture buildup in the bathroom that causes just another source of stench.Towels you ask? Bring your own. Hairy, supremely exfoliating, and barely long enough to wrap around my 31" waist. They make good floormats, though. Also, bring all of your own toiletries. There was one of those tiny bars of hotel soap, and that was it. ONE bar of tiny hotel soap. We asked the desk for a little shampoo and they said they only have tiny bars of soap. Alright, to the store I go...We stayed for two nights, and we were so exhausted by the time we got back that there was not much time to figure out the channels on their basic cable, as there was not a channel card and the on screen guide says nothing more than "cable" on every channel. But, they did have a strong wifi signal, so I had no problems getting a bit of business done in the evenings prior to bed. I was also able to stream video with my wife and daughter without much lag or glitching, so that was nice.FINAL THOUGHTS:If you need a place to suddenly crash overnight and you're looking for nothing more than a bed and a shower, this place will work in a pinch. Be aware though, it's straight dirty and worn out.If you need a place for more than an impromptu overnight stay, do yourself a huge favor and spend an extra $15 a night for a place that doesn't smell like an 80 year old smoking, hoarders basement.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I had a volleyball tournament this past weekend in Allen, so we found this hotel to stay in on the inexpensive list. I regret the decision.
+Checkin in, the front desk staff was kind enough. He did his job, we got our room keys, and went on our way. Pulling around the parking lot, however, we realized that this place was rough. Lights were flickering, the front desk advised us to use all locks on the doors (fair enough, bad people exist), and there was a good amount of shouting going on from different directions as we were unloading the car.
+Once we got into the room, the stench of cigarette smoke, bad plumbing, and saturated air coming from the old a/c unit was overwhelming. Mind you, we had a "smoke free" room. Nope. It was stank. "Alright, so it stinks a little. No big deal." Well, then we pulled the sandpaper comforters off the beds in order to check out the bedbug situation, and to our surprise there was not any obvious signs of bedbugs! Nice. 
+Next, the bathroom. Oh boy, the bathroom. Well, it's dirty. Big time dirty. It had constant hot water, so that was nice, but there were short and curly's all over the bathtub and scattered around on the toilet. I assume they cleaned before we got there, but it was not a thorough job. The edging of the tub and basically anywhere that there...I had a volleyball tournament this past weekend in Allen, so we found this hotel to stay in on the inexpensive list. I regret the decision.Checkin in, the front desk staff was kind enough. He did his job, we got our room keys, and went on our way. Pulling around the parking lot, however, we realized that this place was rough. Lights were flickering, the front desk advised us to use all locks on the doors (fair enough, bad people exist), and there was a good amount of shouting going on from different directions as we were unloading the car.Once we got into the room, the stench of cigarette smoke, bad plumbing, and saturated air coming from the old a/c unit was overwhelming. Mind you, we had a "smoke free" room. Nope. It was stank. "Alright, so it stinks a little. No big deal." Well, then we pulled the sandpaper comforters off the beds in order to check out the bedbug situation, and to our surprise there was not any obvious signs of bedbugs! Nice. Next, the bathroom. Oh boy, the bathroom. Well, it's dirty. Big time dirty. It had constant hot water, so that was nice, but there were short and curly's all over the bathtub and scattered around on the toilet. I assume they cleaned before we got there, but it was not a thorough job. The edging of the tub and basically anywhere that there might have once been a calked seem was now an open crevice with black mildew prevalent; that explains the musty bathroom smell. So let's turn on the vent to get some stank out. It sounded like every fan blade was broken and banging against the ceiling. Crazy loud. Explains why it's most likely never used and the reason for all the moisture buildup in the bathroom that causes just another source of stench.Towels you ask? Bring your own. Hairy, supremely exfoliating, and barely long enough to wrap around my 31" waist. They make good floormats, though. Also, bring all of your own toiletries. There was one of those tiny bars of hotel soap, and that was it. ONE bar of tiny hotel soap. We asked the desk for a little shampoo and they said they only have tiny bars of soap. Alright, to the store I go...We stayed for two nights, and we were so exhausted by the time we got back that there was not much time to figure out the channels on their basic cable, as there was not a channel card and the on screen guide says nothing more than "cable" on every channel. But, they did have a strong wifi signal, so I had no problems getting a bit of business done in the evenings prior to bed. I was also able to stream video with my wife and daughter without much lag or glitching, so that was nice.FINAL THOUGHTS:If you need a place to suddenly crash overnight and you're looking for nothing more than a bed and a shower, this place will work in a pinch. Be aware though, it's straight dirty and worn out.If you need a place for more than an impromptu overnight stay, do yourself a huge favor and spend an extra $15 a night for a place that doesn't smell like an 80 year old smoking, hoarders basement.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r216618917-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>216618917</t>
+  </si>
+  <si>
+    <t>Best Staff !!</t>
+  </si>
+  <si>
+    <t>I would like to commend two employees at the Motel 6 Southeast in Plano, Texas, for their outstanding service!  I tried to book a room for my sister who did not have a credit card of her own.  Both Garius and Abrahim were extremely helpful -- offering advice on how to book through Expedia.  They were extremely courteous in helping my sister get checked in.  This was not the first hotel I attempted to book, and I did not received the same professional service at the other hotels.  I would recommend this hotel to anyone traveling in the Plano/Dallas area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r212540400-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>212540400</t>
+  </si>
+  <si>
+    <t>06/28/2014</t>
+  </si>
+  <si>
+    <t>rating not low enough</t>
+  </si>
+  <si>
+    <t>our stay at this hotel was better when it was a la quinta . . i was a housekeeper..this room is dirty...sheets worn,carpet dirty,hair everywhere,putty everywhere,mold in bathroom,tub is black,shower wall dirty, floors dirty,air doesn't work right.will not stay again.didn't even offer a new room.and had a pool but said no pool   david maples</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r164376538-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>164376538</t>
+  </si>
+  <si>
+    <t>06/18/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r163367040-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>163367040</t>
+  </si>
+  <si>
+    <t>06/08/2013</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r162842139-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>162842139</t>
+  </si>
+  <si>
+    <t>06/03/2013</t>
+  </si>
+  <si>
+    <t>I'll be back!</t>
+  </si>
+  <si>
+    <t>My experience at La Quinta Inn Plano was one of top quality as far as cleanliness and value.I was visiting family and this location was centrally located with a wonderful staff.I had made the mistake of staying at the Motel 6 down the street the night before.DEPLORABLE conditions.I will again be staying at La Quinta Inn Plano the next time I'm in town!</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r158688414-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>158688414</t>
+  </si>
+  <si>
+    <t>04/24/2013</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r158226112-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>158226112</t>
+  </si>
+  <si>
+    <t>04/19/2013</t>
+  </si>
+  <si>
+    <t>Ok hotel, been to better.</t>
+  </si>
+  <si>
+    <t>Old LaQuinta off Central in Plano.  Brother had a full house, so decided to stay here.  Didn't feel super safe, but had no issues.  They are in the process of renovating the rooms.  We had a room that was in transition.  Pet friendly with no additional fees.  Free parking.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r157004100-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>157004100</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Ok, but a little rough around the edges</t>
+  </si>
+  <si>
+    <t>I stayed here one night with my wife and can say it's an inexpensive place that is ok to stay at. The staff is good and the lobby area and room are perfectly fine. The grounds and pool area could have used some cleaning. The handle on the bathroom sink hot water came unscrewed the first time I used it. I screwed it back on and had no further problems. I must say that the hotel does offer a good rate and in general is good to stay at if you are just passing through town for a few days.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r153536744-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>153536744</t>
+  </si>
+  <si>
+    <t>03/02/2013</t>
+  </si>
+  <si>
+    <t>My First Stay at LaQuinta</t>
+  </si>
+  <si>
+    <t>I could not be happier with my stay at LaQuinta.  My room was large, clean and decorated nicely.  The bathroom was large and well lit, also very clean.  Pillows and mattress were very comfortable.  Excellent value for the money!  I will be staying at LaQuinta more often.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r152542485-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>152542485</t>
+  </si>
+  <si>
+    <t>02/19/2013</t>
+  </si>
+  <si>
+    <t>If you have not, Try LaQuinta !</t>
+  </si>
+  <si>
+    <t>excellent services for the price you pay ! nice comfortable room , Pillows, mattress awesome.Plano Texas.Best was front desk check in attendants.close to the highways, not crowded area, clean ,comfortable .</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r151928032-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>151928032</t>
+  </si>
+  <si>
+    <t>02/11/2013</t>
+  </si>
+  <si>
+    <t>Good Place to Stay</t>
+  </si>
+  <si>
+    <t>We have stayed here a number of time and the service is great the location is good and the rooms are clean.  Anyone traveling thru Plano would not be disappointed if looking for a goodbargin and a clean place.  The one down side is there is not a good place to walk a dog unlessyou go out by the street. This is an average mid price hotel they do have a lot of consturctionworkers of some type staying here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r148248053-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>148248053</t>
+  </si>
+  <si>
+    <t>12/28/2012</t>
+  </si>
+  <si>
+    <t>Not safe</t>
+  </si>
+  <si>
+    <t>We came for a long weekend and chose the hotel for its pet friendly policies.  Upon arrival Plano PD pulled man out of can in the parking lot at gun point.  My wife and I lay on the pavement for 20 minutes with our child stuck in a car seat while the felony stop occurred.  Spent the next 20 minutes cleaning out our shorts and waiting for all the flashing lights to stop.  Doors in this property are on the outside, not protected by an interior hallway.  Given the neighborhood and hotel clientele we won't be back!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r147011123-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>147011123</t>
+  </si>
+  <si>
+    <t>12/08/2012</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r145150438-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>145150438</t>
+  </si>
+  <si>
+    <t>11/11/2012</t>
+  </si>
+  <si>
+    <t>Filthy and disgusting....</t>
+  </si>
+  <si>
+    <t>Where do I start?  Hairs in the bathroom sink, on the bathroom door, and on the floor, upon check-in.  And yet housekeeping still had the time to fold the toilet paper roll into a little V.  I wish they would have spent that time actually cleaning the room.  There was some disgusting black stuff on the base of the outside of the tub, looked like mold, but must have been sticky because there were hairs stuck all over it.  Ewwww.  Rusty bathroom fixtures, and the backing on the mirrors was peeling off.  The reviewer who said that this hotel was well maintained was sadly mistaken.  Denny's next door was closed for renovations, but there are plenty of eateries nearby, some within walking distance.  Front desk staff was very friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Where do I start?  Hairs in the bathroom sink, on the bathroom door, and on the floor, upon check-in.  And yet housekeeping still had the time to fold the toilet paper roll into a little V.  I wish they would have spent that time actually cleaning the room.  There was some disgusting black stuff on the base of the outside of the tub, looked like mold, but must have been sticky because there were hairs stuck all over it.  Ewwww.  Rusty bathroom fixtures, and the backing on the mirrors was peeling off.  The reviewer who said that this hotel was well maintained was sadly mistaken.  Denny's next door was closed for renovations, but there are plenty of eateries nearby, some within walking distance.  Front desk staff was very friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r141576867-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>141576867</t>
+  </si>
+  <si>
+    <t>09/29/2012</t>
+  </si>
+  <si>
+    <t>I will return to this hotel</t>
+  </si>
+  <si>
+    <t>Very nice staff, Quick in and quick out. Dennys next door was great. Didnt care for the free breakfast in the lobby. Had an air conditioning issue. Fast response to reset it and all worked perfect. WIFI signal remained low. I had great sleep with no distubances. Great price.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r140706673-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>140706673</t>
+  </si>
+  <si>
+    <t>09/19/2012</t>
+  </si>
+  <si>
+    <t>Decent Stay</t>
+  </si>
+  <si>
+    <t>Decent hotel. Nice location. Bed was ok but after a while got a little hard. Also the closest ice machine was broke but no biggie, just had to walk to the other side of the hotel. Also wished there was some scrambled eggs for the breakfast.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r140360339-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>140360339</t>
+  </si>
+  <si>
+    <t>09/15/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r138532528-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>138532528</t>
+  </si>
+  <si>
+    <t>08/27/2012</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r137086356-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>137086356</t>
+  </si>
+  <si>
+    <t>08/13/2012</t>
+  </si>
+  <si>
+    <t>You get what you pay for: Noisy, Older Hotel</t>
+  </si>
+  <si>
+    <t>My worst night's sleep of our family's ten day trip came at this hotel due to the noise throughout the night. Our room faced away from the highway, but we had to contend with neighbors who were talking throughout the night on the other side of the (exterior) wall of our room. The room itself was small and somewhat dated, but reasonably okay given the cost. Service was good, with the night desk clerk being very friendly and helpful upon check-in and the continental breakfast staff doing a fine job. Overall, not a bad value, but be aware of what you're going to get at this older hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r135427183-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>135427183</t>
+  </si>
+  <si>
+    <t>07/26/2012</t>
+  </si>
+  <si>
+    <t>great value</t>
+  </si>
+  <si>
+    <t>The Dallas area can be very expensive! This La Quinta Inn in Plano was very well priced! The rooms were clean and neat. The beds were surprisingly comfortable! The staff was very nice! Great value for today!!  Will stay there again for sure!</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r132130546-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>132130546</t>
+  </si>
+  <si>
+    <t>06/16/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r131024304-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>131024304</t>
+  </si>
+  <si>
+    <t>05/31/2012</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>The rooms are very clean.the service was the best(I never felt like a bother).Nothing at all wrong with room.The price was great(I have stayed at higher places and this place was just as good and half the price,thank you LaQuinta in dallas/plano,it was a great weekend :)</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r130309889-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>130309889</t>
+  </si>
+  <si>
+    <t>05/20/2012</t>
+  </si>
+  <si>
+    <t>Been staying here for 2 years</t>
+  </si>
+  <si>
+    <t>I have stayed here at least 20 times in the last 2 years.  This is an older motel style (room door to outside) La Quinta.  I have seen a lot of changes and understand many conflicting reviews.  Number 1 quality of this location is the staff!  When I make last minute reservation during a busy time I have seen the rooms that are a little more worn than the others.  I prefer the king with fridge and microwave, seems they were first on list for the newer carpet, drapes, comforter and all minor wear/tear updated.  
+Positives... Nice helpful Staff, "never out of items" breakfast, clean pool, most usually quiet area, Denny's next door, NEW flat screen large HD TVs, now has multiple outlet adapters for phone charging/laptop connection, free speedy reliable wi-fi, free tech support when laptop is having trouble connecting (usually my end),  feel safe walking dog at night most of the time (visitor types do change.. noted below), room is usually very clean and fresh smelling, dark out drapes and really comfy bed!!
+Negatives... New staff members should not be left to run things alone too soon, breakfast not on low carb diet (except boiled eggs), such a good rate that budget doers can collect in parking, grill out and drink beer close to others rooms (not often tho), sometimes I get a room I think is on the upgrade list (needs tub, toilet, paint, ac or carpet...I have stayed here at least 20 times in the last 2 years.  This is an older motel style (room door to outside) La Quinta.  I have seen a lot of changes and understand many conflicting reviews.  Number 1 quality of this location is the staff!  When I make last minute reservation during a busy time I have seen the rooms that are a little more worn than the others.  I prefer the king with fridge and microwave, seems they were first on list for the newer carpet, drapes, comforter and all minor wear/tear updated.  Positives... Nice helpful Staff, "never out of items" breakfast, clean pool, most usually quiet area, Denny's next door, NEW flat screen large HD TVs, now has multiple outlet adapters for phone charging/laptop connection, free speedy reliable wi-fi, free tech support when laptop is having trouble connecting (usually my end),  feel safe walking dog at night most of the time (visitor types do change.. noted below), room is usually very clean and fresh smelling, dark out drapes and really comfy bed!!Negatives... New staff members should not be left to run things alone too soon, breakfast not on low carb diet (except boiled eggs), such a good rate that budget doers can collect in parking, grill out and drink beer close to others rooms (not often tho), sometimes I get a room I think is on the upgrade list (needs tub, toilet, paint, ac or carpet updated). Recently... I think the loss of a great, really hands-on, almost always there.. Manager has "moved on".  Since then the rooms and exterior have not been as clean or the large groups that come along are not objected with words of quieting down or running a muck. You know those mostly teen groups (church, teams, etc) that are all excited about a venture out of town that can make the place look over run with unruly types.  Seems the staff is loosing it's touch... more doggie poop, more trash about, less pretty plants, not shutting down pool time, etc.BUT MOST RECENTLY in the last 3 stays.. Police seem to have taken on the new role of the old manager.  I am a law abiding citizen, but having 6 police cars in the lot at a time made me uncomfortable and suspicious...  Spoke to staff and seems nothing really bad going on beyond any other hotel (a woman having multiple visitors and too many teens running around loudly).  Again I think it is because they need that Manager back or one like her.For the price and location this is a nice and comfortable place to stay.  This is not a newer place.  This is not a 4 or 5 star hotel.  I personally like not having to walk down a warm, stenchy hallway to get to my room at this price.  I can see my car out my window.  I can step outside in one second if I need to get something from my car or have a quick smoke without having a smelly 'smokers room'.I do think that not having an ice maker on the first level is silly especially for the handicap.  Please get back that Manager or get one like her soon!MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed here at least 20 times in the last 2 years.  This is an older motel style (room door to outside) La Quinta.  I have seen a lot of changes and understand many conflicting reviews.  Number 1 quality of this location is the staff!  When I make last minute reservation during a busy time I have seen the rooms that are a little more worn than the others.  I prefer the king with fridge and microwave, seems they were first on list for the newer carpet, drapes, comforter and all minor wear/tear updated.  
+Positives... Nice helpful Staff, "never out of items" breakfast, clean pool, most usually quiet area, Denny's next door, NEW flat screen large HD TVs, now has multiple outlet adapters for phone charging/laptop connection, free speedy reliable wi-fi, free tech support when laptop is having trouble connecting (usually my end),  feel safe walking dog at night most of the time (visitor types do change.. noted below), room is usually very clean and fresh smelling, dark out drapes and really comfy bed!!
+Negatives... New staff members should not be left to run things alone too soon, breakfast not on low carb diet (except boiled eggs), such a good rate that budget doers can collect in parking, grill out and drink beer close to others rooms (not often tho), sometimes I get a room I think is on the upgrade list (needs tub, toilet, paint, ac or carpet...I have stayed here at least 20 times in the last 2 years.  This is an older motel style (room door to outside) La Quinta.  I have seen a lot of changes and understand many conflicting reviews.  Number 1 quality of this location is the staff!  When I make last minute reservation during a busy time I have seen the rooms that are a little more worn than the others.  I prefer the king with fridge and microwave, seems they were first on list for the newer carpet, drapes, comforter and all minor wear/tear updated.  Positives... Nice helpful Staff, "never out of items" breakfast, clean pool, most usually quiet area, Denny's next door, NEW flat screen large HD TVs, now has multiple outlet adapters for phone charging/laptop connection, free speedy reliable wi-fi, free tech support when laptop is having trouble connecting (usually my end),  feel safe walking dog at night most of the time (visitor types do change.. noted below), room is usually very clean and fresh smelling, dark out drapes and really comfy bed!!Negatives... New staff members should not be left to run things alone too soon, breakfast not on low carb diet (except boiled eggs), such a good rate that budget doers can collect in parking, grill out and drink beer close to others rooms (not often tho), sometimes I get a room I think is on the upgrade list (needs tub, toilet, paint, ac or carpet updated). Recently... I think the loss of a great, really hands-on, almost always there.. Manager has "moved on".  Since then the rooms and exterior have not been as clean or the large groups that come along are not objected with words of quieting down or running a muck. You know those mostly teen groups (church, teams, etc) that are all excited about a venture out of town that can make the place look over run with unruly types.  Seems the staff is loosing it's touch... more doggie poop, more trash about, less pretty plants, not shutting down pool time, etc.BUT MOST RECENTLY in the last 3 stays.. Police seem to have taken on the new role of the old manager.  I am a law abiding citizen, but having 6 police cars in the lot at a time made me uncomfortable and suspicious...  Spoke to staff and seems nothing really bad going on beyond any other hotel (a woman having multiple visitors and too many teens running around loudly).  Again I think it is because they need that Manager back or one like her.For the price and location this is a nice and comfortable place to stay.  This is not a newer place.  This is not a 4 or 5 star hotel.  I personally like not having to walk down a warm, stenchy hallway to get to my room at this price.  I can see my car out my window.  I can step outside in one second if I need to get something from my car or have a quick smoke without having a smelly 'smokers room'.I do think that not having an ice maker on the first level is silly especially for the handicap.  Please get back that Manager or get one like her soon!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r125282101-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>125282101</t>
+  </si>
+  <si>
+    <t>02/27/2012</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r123501158-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>123501158</t>
+  </si>
+  <si>
+    <t>01/23/2012</t>
+  </si>
+  <si>
+    <t>Handicap Room</t>
+  </si>
+  <si>
+    <t>First let me say that when I checked in and out the same young lady waited on me.  She was delightful, informed and just overall a pleasure. This room was great, king bed pillow top slept great.  Handicap bathroom easy excess for my husband. But most inportant the room was very very clean.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r118587211-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>118587211</t>
+  </si>
+  <si>
+    <t>09/25/2011</t>
+  </si>
+  <si>
+    <t>Everything you expect from a La Quinta</t>
+  </si>
+  <si>
+    <t>Well, I personally do not prefer staying in La Quinta unless I have to. But when I do not have any other choice, at least I know what I can expect from them and I always got it. I appreciate that standardization. It offers an average breakfast, with plenty of fruits, cereals, bagels, cream cheese and cakes or waffles. Coffee is always good. Staff is really helpful, they changed my room because the one I got was really noisy.This hotel and the decor are pretty old. My room was smelling like smoke. Towels and sheets were not really clean but the bed was comfortable. The hotel is close to highway (again as expected), has a swimming pool (which I did not use) and parking space.  The highway causes significant noise in the night, so try to choose a room facing the back yard.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>Well, I personally do not prefer staying in La Quinta unless I have to. But when I do not have any other choice, at least I know what I can expect from them and I always got it. I appreciate that standardization. It offers an average breakfast, with plenty of fruits, cereals, bagels, cream cheese and cakes or waffles. Coffee is always good. Staff is really helpful, they changed my room because the one I got was really noisy.This hotel and the decor are pretty old. My room was smelling like smoke. Towels and sheets were not really clean but the bed was comfortable. The hotel is close to highway (again as expected), has a swimming pool (which I did not use) and parking space.  The highway causes significant noise in the night, so try to choose a room facing the back yard.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r89258150-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>89258150</t>
+  </si>
+  <si>
+    <t>12/07/2010</t>
+  </si>
+  <si>
+    <t>Perfect no frills/low-cost hotel</t>
+  </si>
+  <si>
+    <t>For a very reasonable rate, this was a perfectly fine room.  No bells or whistles outside of the breakfast bar, but exactly what I would expect and want for this price.  The front desk (Awad) was particularly helpful in ironing out  a minor problem.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r84686818-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>84686818</t>
+  </si>
+  <si>
+    <t>10/24/2010</t>
+  </si>
+  <si>
+    <t>As La Quintas go, I've seen better.</t>
+  </si>
+  <si>
+    <t>Just in case I selected the wrong La Quinta from TripAdvisor's menu, this review refers to the La Quinta at 1820 North Central Expressway in Plano, Texas.
+I stayed in this hotel for three nights, with my wife, mother, and two cats.  We chose this one due to La Quinta's pet-friendly policy, and the proximity of this particular La Quinta to my uncle's house, which was the purpose of our visit to Plano.  On a previous cross-country trip, my wife and I (and our cats) stayed in La Quintas all the way from California to Mississippi, so I have a fair basis for comparison.
+The hotel is a fair value, but there are some drawbacks to be aware of.  We had a handicap-accessible room, so it was on the first floor.  However, the only ice machine was on the second floor.  The room had no refrigerator or microwave.  The front desk offered to have a refrigerator brought to our room...for an extra $10 per night.  Our heating unit kept making an annoying clicking sound, as if the thermostat was faulty.  The maintenance man was off for the night when we arrived, so he didn't come until the next morning, and he spoke mostly Spanish--very little English.  The tile around the bathtub spigot was cracked, the tub's water pressure was low, and the shower wand was missing the height-adjustable hook, so it couldn't be mounted high enough for a 6-foot tall...Just in case I selected the wrong La Quinta from TripAdvisor's menu, this review refers to the La Quinta at 1820 North Central Expressway in Plano, Texas.I stayed in this hotel for three nights, with my wife, mother, and two cats.  We chose this one due to La Quinta's pet-friendly policy, and the proximity of this particular La Quinta to my uncle's house, which was the purpose of our visit to Plano.  On a previous cross-country trip, my wife and I (and our cats) stayed in La Quintas all the way from California to Mississippi, so I have a fair basis for comparison.The hotel is a fair value, but there are some drawbacks to be aware of.  We had a handicap-accessible room, so it was on the first floor.  However, the only ice machine was on the second floor.  The room had no refrigerator or microwave.  The front desk offered to have a refrigerator brought to our room...for an extra $10 per night.  Our heating unit kept making an annoying clicking sound, as if the thermostat was faulty.  The maintenance man was off for the night when we arrived, so he didn't come until the next morning, and he spoke mostly Spanish--very little English.  The tile around the bathtub spigot was cracked, the tub's water pressure was low, and the shower wand was missing the height-adjustable hook, so it couldn't be mounted high enough for a 6-foot tall person.  Our room was near the back entrance to the lobby, and the lobby door slammed very loudly every time someone used it, which seemed to go on all night.  We told the maintenance man and the front desk about this, but it was still not fixed the next night.  Overall, I would recommend you find another hotel, unless this one just happens to be extremely convenient to you based on its location, as was the case for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>Just in case I selected the wrong La Quinta from TripAdvisor's menu, this review refers to the La Quinta at 1820 North Central Expressway in Plano, Texas.
+I stayed in this hotel for three nights, with my wife, mother, and two cats.  We chose this one due to La Quinta's pet-friendly policy, and the proximity of this particular La Quinta to my uncle's house, which was the purpose of our visit to Plano.  On a previous cross-country trip, my wife and I (and our cats) stayed in La Quintas all the way from California to Mississippi, so I have a fair basis for comparison.
+The hotel is a fair value, but there are some drawbacks to be aware of.  We had a handicap-accessible room, so it was on the first floor.  However, the only ice machine was on the second floor.  The room had no refrigerator or microwave.  The front desk offered to have a refrigerator brought to our room...for an extra $10 per night.  Our heating unit kept making an annoying clicking sound, as if the thermostat was faulty.  The maintenance man was off for the night when we arrived, so he didn't come until the next morning, and he spoke mostly Spanish--very little English.  The tile around the bathtub spigot was cracked, the tub's water pressure was low, and the shower wand was missing the height-adjustable hook, so it couldn't be mounted high enough for a 6-foot tall...Just in case I selected the wrong La Quinta from TripAdvisor's menu, this review refers to the La Quinta at 1820 North Central Expressway in Plano, Texas.I stayed in this hotel for three nights, with my wife, mother, and two cats.  We chose this one due to La Quinta's pet-friendly policy, and the proximity of this particular La Quinta to my uncle's house, which was the purpose of our visit to Plano.  On a previous cross-country trip, my wife and I (and our cats) stayed in La Quintas all the way from California to Mississippi, so I have a fair basis for comparison.The hotel is a fair value, but there are some drawbacks to be aware of.  We had a handicap-accessible room, so it was on the first floor.  However, the only ice machine was on the second floor.  The room had no refrigerator or microwave.  The front desk offered to have a refrigerator brought to our room...for an extra $10 per night.  Our heating unit kept making an annoying clicking sound, as if the thermostat was faulty.  The maintenance man was off for the night when we arrived, so he didn't come until the next morning, and he spoke mostly Spanish--very little English.  The tile around the bathtub spigot was cracked, the tub's water pressure was low, and the shower wand was missing the height-adjustable hook, so it couldn't be mounted high enough for a 6-foot tall person.  Our room was near the back entrance to the lobby, and the lobby door slammed very loudly every time someone used it, which seemed to go on all night.  We told the maintenance man and the front desk about this, but it was still not fixed the next night.  Overall, I would recommend you find another hotel, unless this one just happens to be extremely convenient to you based on its location, as was the case for us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r46239371-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>46239371</t>
+  </si>
+  <si>
+    <t>10/08/2009</t>
+  </si>
+  <si>
+    <t>Great location &amp; value with a nice breakfast</t>
+  </si>
+  <si>
+    <t>I got an amzing $29 a night rate &amp; stayed 4 nights. When I needed to extended it another night they gave me a higher, but still good rate. Breakfast was good &amp; the rooms were big enough to set up a pack &amp; play too. Having a fridge is an option but I went with the cheaper room instead.</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r11007572-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>11007572</t>
+  </si>
+  <si>
+    <t>11/23/2007</t>
+  </si>
+  <si>
+    <t>Overcharged Me!!</t>
+  </si>
+  <si>
+    <t>Got to the hotel and initially asked for two nights, well it was so disgusting that we ended up staying only one and finding somewhere else to stay.  We checked out and was still charged for two nights.  Well when I got to looking at my bank statements they had charged me for THREE nights and we only stayed one! Service was horrible, and bathrooms were disgusting! Front Office staff was never at the counter avaliable to serve you. Overall horrible stay and would rather sleep in my car thean here again! DO NOT STAY HERE!</t>
+  </si>
+  <si>
+    <t>November 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r8073281-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>8073281</t>
+  </si>
+  <si>
+    <t>07/06/2007</t>
+  </si>
+  <si>
+    <t>So So!</t>
+  </si>
+  <si>
+    <t>Hotel is well worn.  It was all right, but far below most La Quinta.  We stay at LaQuinta often so we are familiar with the quality.  I only recall two other occasion with lower quality and need of overall maintenance.  This La Quinta would rate would rate # 3 with only two others La Quinta being higher in the do not stay here again list.  I would put this La Quinta in the category of Motel 6</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r7301820-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>7301820</t>
+  </si>
+  <si>
+    <t>04/08/2007</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Overall, I our stay was pleasant. There were problems such as the carpet needed cleaning and the doors and trim around the door knobs needed cleaning. There was some touch up paint that did not completely match. The maid service was okay, although we came in while she was cleaning and were waiting for her to leave so we could change, so she was in a hurry. The breakfast was good, perhaps a little limited, but they did have waffles which were good. We paid $39 a night, so for the price it was very good.</t>
+  </si>
+  <si>
+    <t>April 2007</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1448,2704 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>95</v>
+      </c>
+      <c r="X8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>104</v>
+      </c>
+      <c r="X9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>112</v>
+      </c>
+      <c r="O10" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>119</v>
+      </c>
+      <c r="O11" t="s">
+        <v>120</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>135</v>
+      </c>
+      <c r="O14" t="s">
+        <v>68</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s">
+        <v>139</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>135</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" t="s">
+        <v>145</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>146</v>
+      </c>
+      <c r="O16" t="s">
+        <v>68</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>150</v>
+      </c>
+      <c r="O17" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18" t="s">
+        <v>154</v>
+      </c>
+      <c r="L18" t="s">
+        <v>155</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>156</v>
+      </c>
+      <c r="O18" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" t="s">
+        <v>161</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>150</v>
+      </c>
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" t="s">
+        <v>165</v>
+      </c>
+      <c r="L20" t="s">
+        <v>166</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>167</v>
+      </c>
+      <c r="O20" t="s">
+        <v>94</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" t="s">
+        <v>171</v>
+      </c>
+      <c r="L21" t="s">
+        <v>172</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>167</v>
+      </c>
+      <c r="O21" t="s">
+        <v>68</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>174</v>
+      </c>
+      <c r="J22" t="s">
+        <v>175</v>
+      </c>
+      <c r="K22" t="s">
+        <v>176</v>
+      </c>
+      <c r="L22" t="s">
+        <v>177</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>167</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>179</v>
+      </c>
+      <c r="J23" t="s">
+        <v>180</v>
+      </c>
+      <c r="K23" t="s">
+        <v>181</v>
+      </c>
+      <c r="L23" t="s">
+        <v>182</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>183</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>184</v>
+      </c>
+      <c r="J24" t="s">
+        <v>185</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>186</v>
+      </c>
+      <c r="O24" t="s">
+        <v>68</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>188</v>
+      </c>
+      <c r="J25" t="s">
+        <v>189</v>
+      </c>
+      <c r="K25" t="s">
+        <v>190</v>
+      </c>
+      <c r="L25" t="s">
+        <v>191</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>192</v>
+      </c>
+      <c r="O25" t="s">
+        <v>94</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>195</v>
+      </c>
+      <c r="J26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K26" t="s">
+        <v>197</v>
+      </c>
+      <c r="L26" t="s">
+        <v>198</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>199</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>200</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>201</v>
+      </c>
+      <c r="J27" t="s">
+        <v>202</v>
+      </c>
+      <c r="K27" t="s">
+        <v>203</v>
+      </c>
+      <c r="L27" t="s">
+        <v>204</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>199</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>206</v>
+      </c>
+      <c r="J28" t="s">
+        <v>207</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>199</v>
+      </c>
+      <c r="O28" t="s">
+        <v>68</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>208</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>209</v>
+      </c>
+      <c r="J29" t="s">
+        <v>210</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>211</v>
+      </c>
+      <c r="O29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>212</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>213</v>
+      </c>
+      <c r="J30" t="s">
+        <v>214</v>
+      </c>
+      <c r="K30" t="s">
+        <v>215</v>
+      </c>
+      <c r="L30" t="s">
+        <v>216</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>211</v>
+      </c>
+      <c r="O30" t="s">
+        <v>68</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>217</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>218</v>
+      </c>
+      <c r="J31" t="s">
+        <v>219</v>
+      </c>
+      <c r="K31" t="s">
+        <v>220</v>
+      </c>
+      <c r="L31" t="s">
+        <v>221</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>222</v>
+      </c>
+      <c r="O31" t="s">
+        <v>68</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>223</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>224</v>
+      </c>
+      <c r="J32" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s">
+        <v>139</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>156</v>
+      </c>
+      <c r="O32" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>226</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>227</v>
+      </c>
+      <c r="J33" t="s">
+        <v>228</v>
+      </c>
+      <c r="K33" t="s">
+        <v>229</v>
+      </c>
+      <c r="L33" t="s">
+        <v>230</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>231</v>
+      </c>
+      <c r="O33" t="s">
+        <v>68</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>232</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>233</v>
+      </c>
+      <c r="J34" t="s">
+        <v>234</v>
+      </c>
+      <c r="K34" t="s">
+        <v>235</v>
+      </c>
+      <c r="L34" t="s">
+        <v>236</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>231</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>238</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>239</v>
+      </c>
+      <c r="J35" t="s">
+        <v>240</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s"/>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>241</v>
+      </c>
+      <c r="O35" t="s">
+        <v>68</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>242</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>243</v>
+      </c>
+      <c r="J36" t="s">
+        <v>244</v>
+      </c>
+      <c r="K36" t="s">
+        <v>245</v>
+      </c>
+      <c r="L36" t="s">
+        <v>246</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>247</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>248</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>249</v>
+      </c>
+      <c r="J37" t="s">
+        <v>250</v>
+      </c>
+      <c r="K37" t="s">
+        <v>251</v>
+      </c>
+      <c r="L37" t="s">
+        <v>252</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>253</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>255</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>256</v>
+      </c>
+      <c r="J38" t="s">
+        <v>257</v>
+      </c>
+      <c r="K38" t="s">
+        <v>258</v>
+      </c>
+      <c r="L38" t="s">
+        <v>259</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>260</v>
+      </c>
+      <c r="O38" t="s">
+        <v>94</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>261</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>262</v>
+      </c>
+      <c r="J39" t="s">
+        <v>263</v>
+      </c>
+      <c r="K39" t="s">
+        <v>264</v>
+      </c>
+      <c r="L39" t="s">
+        <v>265</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>266</v>
+      </c>
+      <c r="O39" t="s">
+        <v>68</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>268</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>269</v>
+      </c>
+      <c r="J40" t="s">
+        <v>270</v>
+      </c>
+      <c r="K40" t="s">
+        <v>271</v>
+      </c>
+      <c r="L40" t="s">
+        <v>272</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>273</v>
+      </c>
+      <c r="O40" t="s">
+        <v>68</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>274</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>275</v>
+      </c>
+      <c r="J41" t="s">
+        <v>276</v>
+      </c>
+      <c r="K41" t="s">
+        <v>277</v>
+      </c>
+      <c r="L41" t="s">
+        <v>278</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>279</v>
+      </c>
+      <c r="O41" t="s">
+        <v>94</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>280</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>281</v>
+      </c>
+      <c r="J42" t="s">
+        <v>282</v>
+      </c>
+      <c r="K42" t="s">
+        <v>283</v>
+      </c>
+      <c r="L42" t="s">
+        <v>284</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>285</v>
+      </c>
+      <c r="O42" t="s">
+        <v>94</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>286</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>287</v>
+      </c>
+      <c r="J43" t="s">
+        <v>288</v>
+      </c>
+      <c r="K43" t="s">
+        <v>289</v>
+      </c>
+      <c r="L43" t="s">
+        <v>290</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>291</v>
+      </c>
+      <c r="O43" t="s">
+        <v>68</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>290</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_565.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_565.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="326">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Indyjrg1762</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>deliarimes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r409766133-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>The worst Motel 6 I've ever stayed at....horrible experience...room barely furnished or even bedspreads on the bed, in total disrepair..parking lot floods when it rains...other guests woke up us in the middle of the night. Complained to management, unwilling to do anything...in the morning husband went back to office and was told to call corporate. Were given a claim number, but that it would ultimately be up to the manager since it is a franchise..I went back to the office a few minutes ago, the manager was uncooperative and unwilling to do anything about compensation for our troubles.  We have been going to Motel 6's for over 6 years and we never experienced any of this. Disgusting!  I would never stay here if I were you!More</t>
   </si>
   <si>
+    <t>Howard J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r403087996-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Angela B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r359530956-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t>Before my arrival date I called and was told this property had no microwave or fridge. That was heartbreaking because I thought I saw a microwave in a previous review. Check in went smooth, just 3-5minutes &amp; there was no incidental fee, which most hotels charge so that was a plus. When I got to my room, I was surprised to see a microwave &amp; fridge &amp; they looked new! The room however was straight outta the 80's but they are remodeling. And when I say that...the noise all day until 9pm, electric saws, hammering, throwing stuff in the large dumpster! I couldn't sleep. I had no problem with anyone I've encountered but most guests looked like they were having extremely hard times. I guess since this was one of the cheapest places to stay. I made reservations for myself only &amp; to behold, all I got from housekeeping was 1 washcloth! I thought 2 was standard. Denny's is next door, which was great to have. There's a soda machine on property but looked like I didn't wanna try my money in it. Also they lock the door to the lobby area overnight so it felt creepy when I was leaving at 5am. Oh and I killed 2 roaches in my room.More</t>
   </si>
   <si>
+    <t>Dacrow1970</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r343177990-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
   </si>
   <si>
@@ -264,6 +279,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Esperanza V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r339199075-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Lovelace1967</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r307940957-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
   </si>
   <si>
@@ -310,6 +331,9 @@
   </si>
   <si>
     <t>This place is not for anyone to stay here. Very much in 'busy' type establishment. There was 'traffic' outside our room until way after 3 am and they really left the light on for you. Rooms in bad clean up and bed had metal sticking out the bottom.  Skip and go some where else.More</t>
+  </si>
+  <si>
+    <t>Elaine H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r297368362-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
@@ -381,6 +405,9 @@
                a.)  9+ hrs...I am a senior citizen &amp; I had a weekly rental at this Motel 6 with an AARP discount.Miguel checked me in at the front desk of the motel. He was rude when I requested he fix several safety &amp; security hazards issues.He called the police because I insisted he call maintenance while I was at the front desk. The police came out &amp; said that all the issues are civil matters.So I checked out off my room.Miguel stated, in front of the police officers, that he was giving me a refund when I checked out.However, when I checked my account, he had charged my credit card twice!No refund was given.Problems I Requested to be remedied:1.)  No Smoke Alarm! There is a hole in the wall with wires hanging out where the smoke alarm had been. 2.)  Security Latch was broken.3.)  Roaches in the room..4.)  Mini fridge stopped working sometime during the night.5.)  Air conditioner stopped cooling.  Miguel's Response to most issues:  "Maintenance is Busy"   Solutions: Ignore &amp; Avoid Issues1.)  No Smoke Alarm:           Ignored:     Issue was never addressed2.)  Broken Security Latch:   Ignored:     Issue was never addressed.3.)  Roaches:           Sprayed Foul Bug Spray, leaving the stench of Chemicals.            Roaches Remained.4.)  Mini Fridge not working:        Miguel stated 4 different times he had called maintenance about the fridge &amp;  it would be replaced or fixed ASAP.                 a.)  9+ hrs later, maintenance came to my room, flipped a switch &amp;  the fridge came on.               b.)  I asked why it took so long &amp; was told no maintenance personal were on the property when I reported the problem, so they weren't aware of the issue.               c.) By the time maintenance found out and came to my room, all of my food had already spoiled.5.) Air Conditioner   not cooling:   Maintenance came, found AC to be frozen inside. So they:                     a.) Turned the AC off while it was 100+ Degrees outside!                    b.) Put towels under the AC unit to catch the dripping water.  c.) They never checked on the AC again.                     d.) They never fixed the cause of the AC malfunction.If you want Over-charges, No Smoke Alarm, Broken Security Latch, Bad Attitudes &amp; Roaches, then this is the place for you.This was the most horrendous hotel experience. Stay awayMore</t>
   </si>
   <si>
+    <t>TraceSnow</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r279222376-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
   </si>
   <si>
@@ -400,6 +427,9 @@
   </si>
   <si>
     <t>If you go here and complain to front desk about the horrible conditions of this hotel you will get a visit from the owner who will yell, cuss and get in your face while your kids are watching.  I ended up having to call 911 while my husband was literally trying to push this crazy man out of my face. The police finally got there and told us this happens quiet often and hes a "hothead"  We only got half our money back but was well worth it to leave his hell hole.  First of all, this is NOT the hotel in the pictures. It might be one room he updated just to say its updated but trust me its not the rooms we seen. ITS DIRTY (there was hair and dirt in bathroom when we arrived)LIGHTS DIDN'T WORKPLUGS TORN OUT OF WALL CAUSING FIRE HAZARD'SMOKE ALARM TAKEN DOWNROACHESPROSTITUTES LETTING GUESTS KNOW THEY WILL PARTY FOR A PRICEBOTTOM OF BATHROOM DOOR DAMAGEDMOLD IN BATHROOMMOLD ON FURNITURENO PHONEI have never had an experience like this in my life. This man should be required by the city to shut this place down and to get some anger management and business management skills.  Please do not waste your money or time on this horrible place.More</t>
+  </si>
+  <si>
+    <t>Michael S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r216639088-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
@@ -432,6 +462,9 @@
 Next, the bathroom. Oh boy, the bathroom. Well, it's dirty. Big time dirty. It had constant hot water, so that was nice, but there were short and curly's all over the bathtub and scattered around on the toilet. I assume they cleaned before we got there, but it was not a thorough job. The edging of the tub and basically anywhere that there...I had a volleyball tournament this past weekend in Allen, so we found this hotel to stay in on the inexpensive list. I regret the decision.Checkin in, the front desk staff was kind enough. He did his job, we got our room keys, and went on our way. Pulling around the parking lot, however, we realized that this place was rough. Lights were flickering, the front desk advised us to use all locks on the doors (fair enough, bad people exist), and there was a good amount of shouting going on from different directions as we were unloading the car.Once we got into the room, the stench of cigarette smoke, bad plumbing, and saturated air coming from the old a/c unit was overwhelming. Mind you, we had a "smoke free" room. Nope. It was stank. "Alright, so it stinks a little. No big deal." Well, then we pulled the sandpaper comforters off the beds in order to check out the bedbug situation, and to our surprise there was not any obvious signs of bedbugs! Nice. Next, the bathroom. Oh boy, the bathroom. Well, it's dirty. Big time dirty. It had constant hot water, so that was nice, but there were short and curly's all over the bathtub and scattered around on the toilet. I assume they cleaned before we got there, but it was not a thorough job. The edging of the tub and basically anywhere that there might have once been a calked seem was now an open crevice with black mildew prevalent; that explains the musty bathroom smell. So let's turn on the vent to get some stank out. It sounded like every fan blade was broken and banging against the ceiling. Crazy loud. Explains why it's most likely never used and the reason for all the moisture buildup in the bathroom that causes just another source of stench.Towels you ask? Bring your own. Hairy, supremely exfoliating, and barely long enough to wrap around my 31" waist. They make good floormats, though. Also, bring all of your own toiletries. There was one of those tiny bars of hotel soap, and that was it. ONE bar of tiny hotel soap. We asked the desk for a little shampoo and they said they only have tiny bars of soap. Alright, to the store I go...We stayed for two nights, and we were so exhausted by the time we got back that there was not much time to figure out the channels on their basic cable, as there was not a channel card and the on screen guide says nothing more than "cable" on every channel. But, they did have a strong wifi signal, so I had no problems getting a bit of business done in the evenings prior to bed. I was also able to stream video with my wife and daughter without much lag or glitching, so that was nice.FINAL THOUGHTS:If you need a place to suddenly crash overnight and you're looking for nothing more than a bed and a shower, this place will work in a pinch. Be aware though, it's straight dirty and worn out.If you need a place for more than an impromptu overnight stay, do yourself a huge favor and spend an extra $15 a night for a place that doesn't smell like an 80 year old smoking, hoarders basement.More</t>
   </si>
   <si>
+    <t>Debra G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r216618917-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
   </si>
   <si>
@@ -444,6 +477,9 @@
     <t>I would like to commend two employees at the Motel 6 Southeast in Plano, Texas, for their outstanding service!  I tried to book a room for my sister who did not have a credit card of her own.  Both Garius and Abrahim were extremely helpful -- offering advice on how to book through Expedia.  They were extremely courteous in helping my sister get checked in.  This was not the first hotel I attempted to book, and I did not received the same professional service at the other hotels.  I would recommend this hotel to anyone traveling in the Plano/Dallas area.</t>
   </si>
   <si>
+    <t>202dave</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r212540400-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
   </si>
   <si>
@@ -462,6 +498,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Glynn F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r164376538-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
   </si>
   <si>
@@ -474,6 +513,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>A La Quinta traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r163367040-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
   </si>
   <si>
@@ -489,6 +531,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>Kevin R. W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r162842139-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
   </si>
   <si>
@@ -507,6 +552,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>John R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r158688414-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
   </si>
   <si>
@@ -519,6 +567,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>jkdaves</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r158226112-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
   </si>
   <si>
@@ -537,6 +588,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>Emale73</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r157004100-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
   </si>
   <si>
@@ -552,6 +606,9 @@
     <t>I stayed here one night with my wife and can say it's an inexpensive place that is ok to stay at. The staff is good and the lobby area and room are perfectly fine. The grounds and pool area could have used some cleaning. The handle on the bathroom sink hot water came unscrewed the first time I used it. I screwed it back on and had no further problems. I must say that the hotel does offer a good rate and in general is good to stay at if you are just passing through town for a few days.</t>
   </si>
   <si>
+    <t>Kaylyn2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r153536744-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
   </si>
   <si>
@@ -570,6 +627,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r152542485-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
   </si>
   <si>
@@ -585,6 +645,9 @@
     <t>excellent services for the price you pay ! nice comfortable room , Pillows, mattress awesome.Plano Texas.Best was front desk check in attendants.close to the highways, not crowded area, clean ,comfortable .</t>
   </si>
   <si>
+    <t>travelers201168</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r151928032-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
   </si>
   <si>
@@ -600,6 +663,9 @@
     <t>We have stayed here a number of time and the service is great the location is good and the rooms are clean.  Anyone traveling thru Plano would not be disappointed if looking for a goodbargin and a clean place.  The one down side is there is not a good place to walk a dog unlessyou go out by the street. This is an average mid price hotel they do have a lot of consturctionworkers of some type staying here.</t>
   </si>
   <si>
+    <t>Robert C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r148248053-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
   </si>
   <si>
@@ -627,6 +693,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>percolator</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r145150438-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
   </si>
   <si>
@@ -666,6 +735,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>Nicole S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r140706673-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
   </si>
   <si>
@@ -702,6 +774,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>Mike B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r137086356-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
   </si>
   <si>
@@ -760,6 +835,9 @@
   </si>
   <si>
     <t>May 2012</t>
+  </si>
+  <si>
+    <t>slimladyluvsdogs</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r130309889-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
@@ -796,6 +874,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>nanapsmith</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r123501158-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
   </si>
   <si>
@@ -814,6 +895,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>Horizontal_Sleeper</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r118587211-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
   </si>
   <si>
@@ -835,6 +919,9 @@
     <t>Well, I personally do not prefer staying in La Quinta unless I have to. But when I do not have any other choice, at least I know what I can expect from them and I always got it. I appreciate that standardization. It offers an average breakfast, with plenty of fruits, cereals, bagels, cream cheese and cakes or waffles. Coffee is always good. Staff is really helpful, they changed my room because the one I got was really noisy.This hotel and the decor are pretty old. My room was smelling like smoke. Towels and sheets were not really clean but the bed was comfortable. The hotel is close to highway (again as expected), has a swimming pool (which I did not use) and parking space.  The highway causes significant noise in the night, so try to choose a room facing the back yard.More</t>
   </si>
   <si>
+    <t>joeingoal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r89258150-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
   </si>
   <si>
@@ -851,6 +938,9 @@
   </si>
   <si>
     <t>December 2010</t>
+  </si>
+  <si>
+    <t>Gzornoplat</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r84686818-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
@@ -878,6 +968,9 @@
 The hotel is a fair value, but there are some drawbacks to be aware of.  We had a handicap-accessible room, so it was on the first floor.  However, the only ice machine was on the second floor.  The room had no refrigerator or microwave.  The front desk offered to have a refrigerator brought to our room...for an extra $10 per night.  Our heating unit kept making an annoying clicking sound, as if the thermostat was faulty.  The maintenance man was off for the night when we arrived, so he didn't come until the next morning, and he spoke mostly Spanish--very little English.  The tile around the bathtub spigot was cracked, the tub's water pressure was low, and the shower wand was missing the height-adjustable hook, so it couldn't be mounted high enough for a 6-foot tall...Just in case I selected the wrong La Quinta from TripAdvisor's menu, this review refers to the La Quinta at 1820 North Central Expressway in Plano, Texas.I stayed in this hotel for three nights, with my wife, mother, and two cats.  We chose this one due to La Quinta's pet-friendly policy, and the proximity of this particular La Quinta to my uncle's house, which was the purpose of our visit to Plano.  On a previous cross-country trip, my wife and I (and our cats) stayed in La Quintas all the way from California to Mississippi, so I have a fair basis for comparison.The hotel is a fair value, but there are some drawbacks to be aware of.  We had a handicap-accessible room, so it was on the first floor.  However, the only ice machine was on the second floor.  The room had no refrigerator or microwave.  The front desk offered to have a refrigerator brought to our room...for an extra $10 per night.  Our heating unit kept making an annoying clicking sound, as if the thermostat was faulty.  The maintenance man was off for the night when we arrived, so he didn't come until the next morning, and he spoke mostly Spanish--very little English.  The tile around the bathtub spigot was cracked, the tub's water pressure was low, and the shower wand was missing the height-adjustable hook, so it couldn't be mounted high enough for a 6-foot tall person.  Our room was near the back entrance to the lobby, and the lobby door slammed very loudly every time someone used it, which seemed to go on all night.  We told the maintenance man and the front desk about this, but it was still not fixed the next night.  Overall, I would recommend you find another hotel, unless this one just happens to be extremely convenient to you based on its location, as was the case for us.More</t>
   </si>
   <si>
+    <t>lizandkatiemama</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r46239371-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
   </si>
   <si>
@@ -896,6 +989,9 @@
     <t>June 2009</t>
   </si>
   <si>
+    <t>carleybreanne</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r11007572-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
   </si>
   <si>
@@ -914,6 +1010,9 @@
     <t>November 2007</t>
   </si>
   <si>
+    <t>jwrob1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r8073281-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
   </si>
   <si>
@@ -930,6 +1029,9 @@
   </si>
   <si>
     <t>July 2007</t>
+  </si>
+  <si>
+    <t>sportstravelerTexas</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r7301820-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
@@ -1452,43 +1554,47 @@
       <c r="A2" t="n">
         <v>5201</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169327</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -1508,50 +1614,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5201</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>169328</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1565,50 +1675,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5201</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>18332</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -1628,50 +1742,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5201</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>1099</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1691,50 +1809,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5201</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169329</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -1754,50 +1876,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5201</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>169330</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -1817,50 +1943,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5201</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>169331</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1872,56 +2002,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="X8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5201</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>19460</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -1937,56 +2071,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="X9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5201</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>169332</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="O10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2004,50 +2142,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5201</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="O11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="P11" t="n">
         <v>2</v>
@@ -2067,50 +2209,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5201</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>42729</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="O12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -2130,50 +2276,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5201</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>169333</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="K13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="O13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -2197,35 +2347,39 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>5201</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>89359</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="J14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -2233,10 +2387,10 @@
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="O14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -2257,49 +2411,50 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>5201</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C15" t="s">
+        <v>149</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="J15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2323,50 +2478,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>5201</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>169334</v>
+      </c>
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="J16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="K16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="O16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2390,35 +2549,39 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>5201</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>6779</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="K17" t="s"/>
       <c r="L17" t="s"/>
@@ -2426,10 +2589,10 @@
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="O17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2450,51 +2613,52 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
-      <c r="Y17" t="s"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>5201</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>29799</v>
+      </c>
+      <c r="C18" t="s">
+        <v>167</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="J18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="K18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="O18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -2518,50 +2682,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>5201</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>51393</v>
+      </c>
+      <c r="C19" t="s">
+        <v>174</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="J19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="O19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2585,50 +2753,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>5201</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>169335</v>
+      </c>
+      <c r="C20" t="s">
+        <v>180</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="J20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="K20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="O20" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2652,50 +2824,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>5201</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>187</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="J21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="K21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="L21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="O21" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2719,50 +2895,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>5201</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>119345</v>
+      </c>
+      <c r="C22" t="s">
+        <v>193</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="J22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="K22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="L22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -2786,41 +2966,45 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>5201</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>7548</v>
+      </c>
+      <c r="C23" t="s">
+        <v>199</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="J23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="K23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
@@ -2839,35 +3023,39 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>5201</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C24" t="s">
+        <v>149</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="J24" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="K24" t="s"/>
       <c r="L24" t="s"/>
@@ -2875,10 +3063,10 @@
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="O24" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -2899,51 +3087,52 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
-      <c r="Y24" t="s"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>5201</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>169336</v>
+      </c>
+      <c r="C25" t="s">
+        <v>209</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="J25" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="K25" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="L25" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="O25" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -2967,50 +3156,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>5201</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>187</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="J26" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="K26" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="L26" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3034,50 +3227,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>5201</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>27971</v>
+      </c>
+      <c r="C27" t="s">
+        <v>223</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="J27" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="K27" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="L27" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -3101,35 +3298,39 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>5201</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C28" t="s">
+        <v>149</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="J28" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="K28" t="s"/>
       <c r="L28" t="s"/>
@@ -3137,10 +3338,10 @@
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="O28" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3161,36 +3362,37 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
-      <c r="Y28" t="s"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>5201</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C29" t="s">
+        <v>149</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="J29" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="K29" t="s"/>
       <c r="L29" t="s"/>
@@ -3198,10 +3400,10 @@
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="O29" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3222,51 +3424,52 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
-      <c r="Y29" t="s"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>5201</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>2674</v>
+      </c>
+      <c r="C30" t="s">
+        <v>236</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="J30" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="K30" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="L30" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="O30" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -3290,50 +3493,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>5201</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>187</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="J31" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="K31" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="L31" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="O31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3357,48 +3564,52 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>5201</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C32" t="s">
+        <v>149</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="J32" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="K32" t="s"/>
       <c r="L32" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="O32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3422,50 +3633,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>5201</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>187</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="J33" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="K33" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="L33" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="O33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3489,50 +3704,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>5201</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>169337</v>
+      </c>
+      <c r="C34" t="s">
+        <v>257</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="J34" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="K34" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="L34" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -3556,35 +3775,39 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>5201</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C35" t="s">
+        <v>149</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="J35" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="K35" t="s"/>
       <c r="L35" t="s"/>
@@ -3592,10 +3815,10 @@
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="O35" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -3616,51 +3839,52 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
-      <c r="Y35" t="s"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>5201</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>169338</v>
+      </c>
+      <c r="C36" t="s">
+        <v>268</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="J36" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="K36" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="L36" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="O36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -3684,50 +3908,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>5201</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>101966</v>
+      </c>
+      <c r="C37" t="s">
+        <v>275</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="J37" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="K37" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="L37" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -3751,50 +3979,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>5201</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>169339</v>
+      </c>
+      <c r="C38" t="s">
+        <v>283</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="J38" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="K38" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="L38" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="O38" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -3808,50 +4040,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>5201</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>169340</v>
+      </c>
+      <c r="C39" t="s">
+        <v>290</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="J39" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="K39" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="L39" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="O39" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -3875,50 +4111,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>5201</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>169341</v>
+      </c>
+      <c r="C40" t="s">
+        <v>298</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="J40" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="K40" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="L40" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="O40" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -3942,50 +4182,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>5201</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>169342</v>
+      </c>
+      <c r="C41" t="s">
+        <v>305</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="J41" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="K41" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="L41" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="O41" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -4009,50 +4253,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>5201</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>169343</v>
+      </c>
+      <c r="C42" t="s">
+        <v>312</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="J42" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="K42" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="L42" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="O42" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P42" t="n">
         <v>2</v>
@@ -4076,50 +4324,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>5201</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>147346</v>
+      </c>
+      <c r="C43" t="s">
+        <v>319</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="J43" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="K43" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="L43" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="O43" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -4143,7 +4395,7 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_565.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_565.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="457">
   <si>
     <t>STR#</t>
   </si>
@@ -150,13 +150,10 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Indyjrg1762</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r454519212-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r505163591-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>56463</t>
@@ -165,6 +162,68 @@
     <t>106478</t>
   </si>
   <si>
+    <t>505163591</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Worst motel experience</t>
+  </si>
+  <si>
+    <t>The room didn't look all that good, the beds had really little bedding which were really dirty, and worse of all, there were bugs. At first we found one on  the wall and killed it. After some time, we saw another bug coming out close from the mini-fridge on the room so we moved it. We saw at least ten more of those roaches and called roomed service for the guy to come. While we were waiting we found a gecko close to under the bed. We freaked out after that. When the guy came he said he was sorry and said they will shut that room down, he gave us 2 options, we get a refund or they find us another room. We decided to leave right there on the spot, not wanting to know more about the motel. I don't recommend this  motel!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>The room didn't look all that good, the beds had really little bedding which were really dirty, and worse of all, there were bugs. At first we found one on  the wall and killed it. After some time, we saw another bug coming out close from the mini-fridge on the room so we moved it. We saw at least ten more of those roaches and called roomed service for the guy to come. While we were waiting we found a gecko close to under the bed. We freaked out after that. When the guy came he said he was sorry and said they will shut that room down, he gave us 2 options, we get a refund or they find us another room. We decided to leave right there on the spot, not wanting to know more about the motel. I don't recommend this  motel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r503487848-Red_Roof_Inn_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>503487848</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Love Motel 6, but not this one!</t>
+  </si>
+  <si>
+    <t>We usually stay in Motel 6's when we travel because of their pet friendly policy. We know they are the bare basics, but we are not in the room much. This was truly the worst in the United States. Our room was 205.
+First, what's wrong:
+1. Booked through booking.com, ordered no-smoking room, 2 beds, first floor. It was a smoking room, 2 beds, second floor. It smelled so awful we had to leave the door open while the A/C was running to try and air it out. They had no other non-smoking room, but they did, at my suggestion, find a can of lavender air spray to mask the odor somewhat. 
+2. The A/C unit only had one knob, but you could take the knob off and use it for both controls.
+3. Toilet not bolted down, and very loose; makes you feel like you're on a rocking ship.
+4. Missing towel bar in bathroom--looks like it was torn out of wall and not replaced.
+5. Wall board peeling at base in bath, and floor not very clean.
+6. Noisy from freeway traffic.
+7. Ice machine on second floor not plugged in; had to walk all the way over to the pool area, and use a key card to get ice. The machine was out of ice, after all that.
+8. Hard to find a place to walk my dog.
+9. It felt strange to see dozens of young...We usually stay in Motel 6's when we travel because of their pet friendly policy. We know they are the bare basics, but we are not in the room much. This was truly the worst in the United States. Our room was 205.First, what's wrong:1. Booked through booking.com, ordered no-smoking room, 2 beds, first floor. It was a smoking room, 2 beds, second floor. It smelled so awful we had to leave the door open while the A/C was running to try and air it out. They had no other non-smoking room, but they did, at my suggestion, find a can of lavender air spray to mask the odor somewhat. 2. The A/C unit only had one knob, but you could take the knob off and use it for both controls.3. Toilet not bolted down, and very loose; makes you feel like you're on a rocking ship.4. Missing towel bar in bathroom--looks like it was torn out of wall and not replaced.5. Wall board peeling at base in bath, and floor not very clean.6. Noisy from freeway traffic.7. Ice machine on second floor not plugged in; had to walk all the way over to the pool area, and use a key card to get ice. The machine was out of ice, after all that.8. Hard to find a place to walk my dog.9. It felt strange to see dozens of young Latino men hanging out outside, smoking or texting on their phones. Having lived in Mexico for 28 years, I spoke Spanish and got along well. They were all very nice, and it was clear most were here to work; many sharing a room. Some guests would not feel comfortable with this; I had no problem, and enjoyed getting to speak a little Spanish.Now, for the good:1. Free wireless is very fast.2. TV worked and had all the normal channels.3. Young man at front desk tried to help, though he was limited in what he could do. We checked in at 7 p.m.; I would suggest checking in earlier for a better choice of rooms, or call to confirm your reservation you made on line. Inspect the room first, before you drag your suitcases up the stairs.4. The is a brochure for the Fang Fang Chinese Restaurant. They deliver and it is some of the best Chinese food I've ever had.5. Denny's is next door; Furrs is next to Denny's.6. It was $52; good price if the room had been non-smoking.MoreShow less</t>
+  </si>
+  <si>
+    <t>We usually stay in Motel 6's when we travel because of their pet friendly policy. We know they are the bare basics, but we are not in the room much. This was truly the worst in the United States. Our room was 205.
+First, what's wrong:
+1. Booked through booking.com, ordered no-smoking room, 2 beds, first floor. It was a smoking room, 2 beds, second floor. It smelled so awful we had to leave the door open while the A/C was running to try and air it out. They had no other non-smoking room, but they did, at my suggestion, find a can of lavender air spray to mask the odor somewhat. 
+2. The A/C unit only had one knob, but you could take the knob off and use it for both controls.
+3. Toilet not bolted down, and very loose; makes you feel like you're on a rocking ship.
+4. Missing towel bar in bathroom--looks like it was torn out of wall and not replaced.
+5. Wall board peeling at base in bath, and floor not very clean.
+6. Noisy from freeway traffic.
+7. Ice machine on second floor not plugged in; had to walk all the way over to the pool area, and use a key card to get ice. The machine was out of ice, after all that.
+8. Hard to find a place to walk my dog.
+9. It felt strange to see dozens of young...We usually stay in Motel 6's when we travel because of their pet friendly policy. We know they are the bare basics, but we are not in the room much. This was truly the worst in the United States. Our room was 205.First, what's wrong:1. Booked through booking.com, ordered no-smoking room, 2 beds, first floor. It was a smoking room, 2 beds, second floor. It smelled so awful we had to leave the door open while the A/C was running to try and air it out. They had no other non-smoking room, but they did, at my suggestion, find a can of lavender air spray to mask the odor somewhat. 2. The A/C unit only had one knob, but you could take the knob off and use it for both controls.3. Toilet not bolted down, and very loose; makes you feel like you're on a rocking ship.4. Missing towel bar in bathroom--looks like it was torn out of wall and not replaced.5. Wall board peeling at base in bath, and floor not very clean.6. Noisy from freeway traffic.7. Ice machine on second floor not plugged in; had to walk all the way over to the pool area, and use a key card to get ice. The machine was out of ice, after all that.8. Hard to find a place to walk my dog.9. It felt strange to see dozens of young Latino men hanging out outside, smoking or texting on their phones. Having lived in Mexico for 28 years, I spoke Spanish and got along well. They were all very nice, and it was clear most were here to work; many sharing a room. Some guests would not feel comfortable with this; I had no problem, and enjoyed getting to speak a little Spanish.Now, for the good:1. Free wireless is very fast.2. TV worked and had all the normal channels.3. Young man at front desk tried to help, though he was limited in what he could do. We checked in at 7 p.m.; I would suggest checking in earlier for a better choice of rooms, or call to confirm your reservation you made on line. Inspect the room first, before you drag your suitcases up the stairs.4. The is a brochure for the Fang Fang Chinese Restaurant. They deliver and it is some of the best Chinese food I've ever had.5. Denny's is next door; Furrs is next to Denny's.6. It was $52; good price if the room had been non-smoking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r454519212-Red_Roof_Inn_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
     <t>454519212</t>
   </si>
   <si>
@@ -183,10 +242,7 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>deliarimes</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r409766133-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r409766133-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>409766133</t>
@@ -210,10 +266,7 @@
     <t>The worst Motel 6 I've ever stayed at....horrible experience...room barely furnished or even bedspreads on the bed, in total disrepair..parking lot floods when it rains...other guests woke up us in the middle of the night. Complained to management, unwilling to do anything...in the morning husband went back to office and was told to call corporate. Were given a claim number, but that it would ultimately be up to the manager since it is a franchise..I went back to the office a few minutes ago, the manager was uncooperative and unwilling to do anything about compensation for our troubles.  We have been going to Motel 6's for over 6 years and we never experienced any of this. Disgusting!  I would never stay here if I were you!More</t>
   </si>
   <si>
-    <t>Howard J</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r403087996-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r403087996-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>403087996</t>
@@ -231,13 +284,46 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Angela B</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r359530956-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r384951018-Red_Roof_Inn_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>384951018</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t>Not good</t>
+  </si>
+  <si>
+    <t>Pulled up there was a lot of people outside there rooms didn't think nothing of it until the police pull up  and they go to the room that the lady at the front desk told us would be ours when they were done cleaning it not to mention this almost two hours after checking time we had to wait to top it all off the manager was really really rude.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r379634265-Red_Roof_Inn_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>379634265</t>
+  </si>
+  <si>
+    <t>06/04/2016</t>
+  </si>
+  <si>
+    <t>Barely ok</t>
+  </si>
+  <si>
+    <t>This could be an above average motel but for the cheapout of the owner/management.  The basic unit was clean and adequate as to size and the bed was ok, however'very dark with 3 50 watt lamps and a 50 watt recess fixture. The toilet paper holder lacked the tube holder, there was no kleenex in the holder, only one washcloth, no bottle opener, and the room phone was inoperative.  The desk chair sat very low, had no cushioning and a hole in the fabric.  All of the wood in the unit's furniture needs refinished.  There were 2 small bars of soap, nothing else.  This Motel 6 might leave the light on for you but it is a dim one.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>This could be an above average motel but for the cheapout of the owner/management.  The basic unit was clean and adequate as to size and the bed was ok, however'very dark with 3 50 watt lamps and a 50 watt recess fixture. The toilet paper holder lacked the tube holder, there was no kleenex in the holder, only one washcloth, no bottle opener, and the room phone was inoperative.  The desk chair sat very low, had no cushioning and a hole in the fabric.  All of the wood in the unit's furniture needs refinished.  There were 2 small bars of soap, nothing else.  This Motel 6 might leave the light on for you but it is a dim one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r359530956-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>359530956</t>
@@ -258,10 +344,7 @@
     <t>Before my arrival date I called and was told this property had no microwave or fridge. That was heartbreaking because I thought I saw a microwave in a previous review. Check in went smooth, just 3-5minutes &amp; there was no incidental fee, which most hotels charge so that was a plus. When I got to my room, I was surprised to see a microwave &amp; fridge &amp; they looked new! The room however was straight outta the 80's but they are remodeling. And when I say that...the noise all day until 9pm, electric saws, hammering, throwing stuff in the large dumpster! I couldn't sleep. I had no problem with anyone I've encountered but most guests looked like they were having extremely hard times. I guess since this was one of the cheapest places to stay. I made reservations for myself only &amp; to behold, all I got from housekeeping was 1 washcloth! I thought 2 was standard. Denny's is next door, which was great to have. There's a soda machine on property but looked like I didn't wanna try my money in it. Also they lock the door to the lobby area overnight so it felt creepy when I was leaving at 5am. Oh and I killed 2 roaches in my room.More</t>
   </si>
   <si>
-    <t>Dacrow1970</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r343177990-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r343177990-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>343177990</t>
@@ -279,10 +362,7 @@
     <t>March 2015</t>
   </si>
   <si>
-    <t>Esperanza V</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r339199075-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r339199075-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>339199075</t>
@@ -300,10 +380,55 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t>Lovelace1967</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r307940957-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r336343468-Red_Roof_Inn_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>336343468</t>
+  </si>
+  <si>
+    <t>12/31/2015</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t>Motel 64801 W. Plano Parkway, Plano, TX this so tell us the worsthotel I've ever been and it smells like smoke everybody that stays there is either doing drugs or selling drugs the whole place smells like marijuana let the front desk know that could care less only people that stay at this hotel are felons and drug dealers the owner of the hotel is aware has been reported to Plano PD owner does not care should be shut down</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r318109305-Red_Roof_Inn_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>318109305</t>
+  </si>
+  <si>
+    <t>10/12/2015</t>
+  </si>
+  <si>
+    <t>Not what I expected</t>
+  </si>
+  <si>
+    <t>Was looking for a night out of the house and decided to go with this Motel 6 due to it's location off of hwy 75 along with saving a few dollars. Rate was around $60 out the door and I booked for 2 queen beds. The property was very dirty along the stairs and walkways to the room, the room smelled like old furniture, I saw a roach while staying in the room, and the room could use a fresh coat of paint. Decor was old, only nice thing was the flat screen tv. I honestly went right to sleep when I got there at 2am and then woke up and left at 12pm after the housekeepers banged down my door 3 times waking me up.I had even requested a 12p checkout with the front desk guy that looked half asleep when I checked in and he told me that was fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Red Roof Inn Plano, responded to this reviewResponded October 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2015</t>
+  </si>
+  <si>
+    <t>Was looking for a night out of the house and decided to go with this Motel 6 due to it's location off of hwy 75 along with saving a few dollars. Rate was around $60 out the door and I booked for 2 queen beds. The property was very dirty along the stairs and walkways to the room, the room smelled like old furniture, I saw a roach while staying in the room, and the room could use a fresh coat of paint. Decor was old, only nice thing was the flat screen tv. I honestly went right to sleep when I got there at 2am and then woke up and left at 12pm after the housekeepers banged down my door 3 times waking me up.I had even requested a 12p checkout with the front desk guy that looked half asleep when I checked in and he told me that was fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r307940957-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>307940957</t>
@@ -318,13 +443,7 @@
     <t>This place is not for anyone to stay here. Very much in 'busy' type establishment. There was 'traffic' outside our room until way after 3 am and they really left the light on for you. Rooms in bad clean up and bed had metal sticking out the bottom.  Skip and go some where else.MoreShow less</t>
   </si>
   <si>
-    <t>September 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>6Team, brand expericened team member at Motel 6 Dallas - Plano - Southeast, responded to this reviewResponded September 10, 2015</t>
+    <t>6Team, brand expericened team member at Red Roof Inn Plano, responded to this reviewResponded September 10, 2015</t>
   </si>
   <si>
     <t>Responded September 10, 2015</t>
@@ -333,10 +452,7 @@
     <t>This place is not for anyone to stay here. Very much in 'busy' type establishment. There was 'traffic' outside our room until way after 3 am and they really left the light on for you. Rooms in bad clean up and bed had metal sticking out the bottom.  Skip and go some where else.More</t>
   </si>
   <si>
-    <t>Elaine H</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r297368362-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r297368362-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>297368362</t>
@@ -375,7 +491,7 @@
     <t>August 2015</t>
   </si>
   <si>
-    <t>6Team, brand expericened team member at Motel 6 Dallas - Plano - Southeast, responded to this reviewResponded August 11, 2015</t>
+    <t>6Team, brand expericened team member at Red Roof Inn Plano, responded to this reviewResponded August 11, 2015</t>
   </si>
   <si>
     <t>Responded August 11, 2015</t>
@@ -405,10 +521,7 @@
                a.)  9+ hrs...I am a senior citizen &amp; I had a weekly rental at this Motel 6 with an AARP discount.Miguel checked me in at the front desk of the motel. He was rude when I requested he fix several safety &amp; security hazards issues.He called the police because I insisted he call maintenance while I was at the front desk. The police came out &amp; said that all the issues are civil matters.So I checked out off my room.Miguel stated, in front of the police officers, that he was giving me a refund when I checked out.However, when I checked my account, he had charged my credit card twice!No refund was given.Problems I Requested to be remedied:1.)  No Smoke Alarm! There is a hole in the wall with wires hanging out where the smoke alarm had been. 2.)  Security Latch was broken.3.)  Roaches in the room..4.)  Mini fridge stopped working sometime during the night.5.)  Air conditioner stopped cooling.  Miguel's Response to most issues:  "Maintenance is Busy"   Solutions: Ignore &amp; Avoid Issues1.)  No Smoke Alarm:           Ignored:     Issue was never addressed2.)  Broken Security Latch:   Ignored:     Issue was never addressed.3.)  Roaches:           Sprayed Foul Bug Spray, leaving the stench of Chemicals.            Roaches Remained.4.)  Mini Fridge not working:        Miguel stated 4 different times he had called maintenance about the fridge &amp;  it would be replaced or fixed ASAP.                 a.)  9+ hrs later, maintenance came to my room, flipped a switch &amp;  the fridge came on.               b.)  I asked why it took so long &amp; was told no maintenance personal were on the property when I reported the problem, so they weren't aware of the issue.               c.) By the time maintenance found out and came to my room, all of my food had already spoiled.5.) Air Conditioner   not cooling:   Maintenance came, found AC to be frozen inside. So they:                     a.) Turned the AC off while it was 100+ Degrees outside!                    b.) Put towels under the AC unit to catch the dripping water.  c.) They never checked on the AC again.                     d.) They never fixed the cause of the AC malfunction.If you want Over-charges, No Smoke Alarm, Broken Security Latch, Bad Attitudes &amp; Roaches, then this is the place for you.This was the most horrendous hotel experience. Stay awayMore</t>
   </si>
   <si>
-    <t>TraceSnow</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r279222376-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r279222376-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>279222376</t>
@@ -429,10 +542,43 @@
     <t>If you go here and complain to front desk about the horrible conditions of this hotel you will get a visit from the owner who will yell, cuss and get in your face while your kids are watching.  I ended up having to call 911 while my husband was literally trying to push this crazy man out of my face. The police finally got there and told us this happens quiet often and hes a "hothead"  We only got half our money back but was well worth it to leave his hell hole.  First of all, this is NOT the hotel in the pictures. It might be one room he updated just to say its updated but trust me its not the rooms we seen. ITS DIRTY (there was hair and dirt in bathroom when we arrived)LIGHTS DIDN'T WORKPLUGS TORN OUT OF WALL CAUSING FIRE HAZARD'SMOKE ALARM TAKEN DOWNROACHESPROSTITUTES LETTING GUESTS KNOW THEY WILL PARTY FOR A PRICEBOTTOM OF BATHROOM DOOR DAMAGEDMOLD IN BATHROOMMOLD ON FURNITURENO PHONEI have never had an experience like this in my life. This man should be required by the city to shut this place down and to get some anger management and business management skills.  Please do not waste your money or time on this horrible place.More</t>
   </si>
   <si>
-    <t>Michael S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r216639088-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r242627873-Red_Roof_Inn_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>242627873</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>Smoke alarms optional</t>
+  </si>
+  <si>
+    <t>We booked a reservation here in November 2014.  We booked 2 rooms, 1 for the kids and one for my husband and me.  The front desk staff was nice and responsive, but that is the only positive I can say.  When we entered our rooms, the smoke alarm was beeping in one room and had been taken off the wall in the other. We found the missing smoke alarm tucked under the mattress with the batteries removed (perhaps a smoker had been in the room before us or that alarm was also beeping and removing it was the solution of the prior occupant?).  Seriously, you'd think the hotel cleaning or maintenance staff would have noticed that.  The front desk person was helpful enough and brought us new batteries, which my husband attempted to change himself as the desk person could not reach the alarm.  Despite new batteries, the alarms in both rooms continued to chirp--could never figure out what the problem was. The rooms were dirty with extremely worn and scratched furniture.  All in all,  an unsettling experience.  We ended up checking out after about 30 minutes.  Again, the hotel staff was nice and apologetic.  This place needs extensive maintenance and a makeover.  Or perhaps should be razed and rebuilt.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>We booked a reservation here in November 2014.  We booked 2 rooms, 1 for the kids and one for my husband and me.  The front desk staff was nice and responsive, but that is the only positive I can say.  When we entered our rooms, the smoke alarm was beeping in one room and had been taken off the wall in the other. We found the missing smoke alarm tucked under the mattress with the batteries removed (perhaps a smoker had been in the room before us or that alarm was also beeping and removing it was the solution of the prior occupant?).  Seriously, you'd think the hotel cleaning or maintenance staff would have noticed that.  The front desk person was helpful enough and brought us new batteries, which my husband attempted to change himself as the desk person could not reach the alarm.  Despite new batteries, the alarms in both rooms continued to chirp--could never figure out what the problem was. The rooms were dirty with extremely worn and scratched furniture.  All in all,  an unsettling experience.  We ended up checking out after about 30 minutes.  Again, the hotel staff was nice and apologetic.  This place needs extensive maintenance and a makeover.  Or perhaps should be razed and rebuilt.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r242555247-Red_Roof_Inn_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>242555247</t>
+  </si>
+  <si>
+    <t>Stay away from this hotel. There is another motel 6 less then 1/2 up the road.</t>
+  </si>
+  <si>
+    <t>Worst hotel experience I've ever been through. Check in went smoothly. Thats the only good thing about this hotel. The Room was horrible. The furniture was covered in cigarette burns, the bathroom needed to be updated really bad. It was clean tho. We didnt ask for a different room because we wanted to sleep. About 3:00 am we hear water dripping. My husband gets up to look and water is dripping from the ceiling.  Within about 2 min, the dripping became a full on down pour. Mu husband went to the office and the rude desk clerk told him he would put up in another room but not right now and we still better check out at 11 and then said "dont try to get a free night outta this". By the time my husband came back the whole floor is ankle deep in he entire room. My husband went back to the office and the  cclerk had locked the doors and was no where to be found. We left and stayed at the motel 6 1/4 mile up the road. We emailed the motel corporate office and got back a auto reply email. The motel 6 we ended up at was corporate owned and a much better experience. MoreShow less</t>
+  </si>
+  <si>
+    <t>Worst hotel experience I've ever been through. Check in went smoothly. Thats the only good thing about this hotel. The Room was horrible. The furniture was covered in cigarette burns, the bathroom needed to be updated really bad. It was clean tho. We didnt ask for a different room because we wanted to sleep. About 3:00 am we hear water dripping. My husband gets up to look and water is dripping from the ceiling.  Within about 2 min, the dripping became a full on down pour. Mu husband went to the office and the rude desk clerk told him he would put up in another room but not right now and we still better check out at 11 and then said "dont try to get a free night outta this". By the time my husband came back the whole floor is ankle deep in he entire room. My husband went back to the office and the  cclerk had locked the doors and was no where to be found. We left and stayed at the motel 6 1/4 mile up the road. We emailed the motel corporate office and got back a auto reply email. The motel 6 we ended up at was corporate owned and a much better experience. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r216639088-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>216639088</t>
@@ -462,10 +608,7 @@
 Next, the bathroom. Oh boy, the bathroom. Well, it's dirty. Big time dirty. It had constant hot water, so that was nice, but there were short and curly's all over the bathtub and scattered around on the toilet. I assume they cleaned before we got there, but it was not a thorough job. The edging of the tub and basically anywhere that there...I had a volleyball tournament this past weekend in Allen, so we found this hotel to stay in on the inexpensive list. I regret the decision.Checkin in, the front desk staff was kind enough. He did his job, we got our room keys, and went on our way. Pulling around the parking lot, however, we realized that this place was rough. Lights were flickering, the front desk advised us to use all locks on the doors (fair enough, bad people exist), and there was a good amount of shouting going on from different directions as we were unloading the car.Once we got into the room, the stench of cigarette smoke, bad plumbing, and saturated air coming from the old a/c unit was overwhelming. Mind you, we had a "smoke free" room. Nope. It was stank. "Alright, so it stinks a little. No big deal." Well, then we pulled the sandpaper comforters off the beds in order to check out the bedbug situation, and to our surprise there was not any obvious signs of bedbugs! Nice. Next, the bathroom. Oh boy, the bathroom. Well, it's dirty. Big time dirty. It had constant hot water, so that was nice, but there were short and curly's all over the bathtub and scattered around on the toilet. I assume they cleaned before we got there, but it was not a thorough job. The edging of the tub and basically anywhere that there might have once been a calked seem was now an open crevice with black mildew prevalent; that explains the musty bathroom smell. So let's turn on the vent to get some stank out. It sounded like every fan blade was broken and banging against the ceiling. Crazy loud. Explains why it's most likely never used and the reason for all the moisture buildup in the bathroom that causes just another source of stench.Towels you ask? Bring your own. Hairy, supremely exfoliating, and barely long enough to wrap around my 31" waist. They make good floormats, though. Also, bring all of your own toiletries. There was one of those tiny bars of hotel soap, and that was it. ONE bar of tiny hotel soap. We asked the desk for a little shampoo and they said they only have tiny bars of soap. Alright, to the store I go...We stayed for two nights, and we were so exhausted by the time we got back that there was not much time to figure out the channels on their basic cable, as there was not a channel card and the on screen guide says nothing more than "cable" on every channel. But, they did have a strong wifi signal, so I had no problems getting a bit of business done in the evenings prior to bed. I was also able to stream video with my wife and daughter without much lag or glitching, so that was nice.FINAL THOUGHTS:If you need a place to suddenly crash overnight and you're looking for nothing more than a bed and a shower, this place will work in a pinch. Be aware though, it's straight dirty and worn out.If you need a place for more than an impromptu overnight stay, do yourself a huge favor and spend an extra $15 a night for a place that doesn't smell like an 80 year old smoking, hoarders basement.More</t>
   </si>
   <si>
-    <t>Debra G</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r216618917-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r216618917-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>216618917</t>
@@ -477,10 +620,7 @@
     <t>I would like to commend two employees at the Motel 6 Southeast in Plano, Texas, for their outstanding service!  I tried to book a room for my sister who did not have a credit card of her own.  Both Garius and Abrahim were extremely helpful -- offering advice on how to book through Expedia.  They were extremely courteous in helping my sister get checked in.  This was not the first hotel I attempted to book, and I did not received the same professional service at the other hotels.  I would recommend this hotel to anyone traveling in the Plano/Dallas area.</t>
   </si>
   <si>
-    <t>202dave</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r212540400-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r212540400-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>212540400</t>
@@ -498,10 +638,43 @@
     <t>June 2014</t>
   </si>
   <si>
-    <t>Glynn F</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r164376538-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r198012932-Red_Roof_Inn_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>198012932</t>
+  </si>
+  <si>
+    <t>03/19/2014</t>
+  </si>
+  <si>
+    <t>Worst hotel stay ever!!!</t>
+  </si>
+  <si>
+    <t>Worn sheets! hair on the bed, sink, floor, tub. Stained carpet. Filthy easy chair. Toilet clogs up every time it's flushed, so haven't been able to use it. Dust every where, and the best part.........the A/C unit is so filthy the air in the room is barely breathable and made me sick. All that and folks slamming doors all night. Pictures on the web site are very misleading. I regret attempting to save a few bucks. Whole property severely dated. I will never stay at a Motel 6 again.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r170430210-Red_Roof_Inn_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>170430210</t>
+  </si>
+  <si>
+    <t>08/02/2013</t>
+  </si>
+  <si>
+    <t>Dirty!</t>
+  </si>
+  <si>
+    <t>When we made reservations this was La Quinta, but before we got there the property changed hands to Motel 6.  The only good things I can say are the bed was comfy and the TV worked.  The bathroom was filthy, had no shampoo etc, no radio or alarm clock, no coffee (in room or lobby), no breakfast, no iron etc.  You get the idea...not a great place to stay.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r164376538-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>164376538</t>
@@ -513,10 +686,7 @@
     <t>June 2013</t>
   </si>
   <si>
-    <t>A La Quinta traveler</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r163367040-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r163367040-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>163367040</t>
@@ -531,10 +701,7 @@
     <t>More</t>
   </si>
   <si>
-    <t>Kevin R. W</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r162842139-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r162842139-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>162842139</t>
@@ -552,25 +719,40 @@
     <t>May 2013</t>
   </si>
   <si>
-    <t>John R</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r158688414-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r162223528-Red_Roof_Inn_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>162223528</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>Our go-to La Quinta near Richardson, Texas</t>
+  </si>
+  <si>
+    <t>This hotel is not fancy - but what a value.  Chrissy, the manager, on the main desk is wonderful - she is so helpful and tries to accommodate anything you need.  Clean, spacious rooms; fluffy towels;  full size pillows and that comfortable bed; plus a flat screen TV.  The new Furr's Cafeteria is right beside the hotel as well as Denny's.  Easy on/off from Route 75.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r158716776-Red_Roof_Inn_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>158716776</t>
+  </si>
+  <si>
+    <t>04/24/2013</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r158688414-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>158688414</t>
   </si>
   <si>
-    <t>04/24/2013</t>
-  </si>
-  <si>
-    <t>April 2013</t>
-  </si>
-  <si>
-    <t>jkdaves</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r158226112-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r158226112-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>158226112</t>
@@ -588,10 +770,7 @@
     <t>June 2012</t>
   </si>
   <si>
-    <t>Emale73</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r157004100-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r157004100-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>157004100</t>
@@ -606,10 +785,34 @@
     <t>I stayed here one night with my wife and can say it's an inexpensive place that is ok to stay at. The staff is good and the lobby area and room are perfectly fine. The grounds and pool area could have used some cleaning. The handle on the bathroom sink hot water came unscrewed the first time I used it. I screwed it back on and had no further problems. I must say that the hotel does offer a good rate and in general is good to stay at if you are just passing through town for a few days.</t>
   </si>
   <si>
-    <t>Kaylyn2</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r153536744-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r155929979-Red_Roof_Inn_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>155929979</t>
+  </si>
+  <si>
+    <t>03/28/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r154484230-Red_Roof_Inn_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>154484230</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>A great stay with a great staff</t>
+  </si>
+  <si>
+    <t>After looking at some reviews,I chose this hotel for a wedding my girlfriend and I were attending. The location is great pretty easy to get to even during Dallas rush hour traffic. What a great room. It looked and smelled clean. The bed was soft and comfy. The water pressure in the shower was sooo good. The breakfast was OK, but with a Denny's right next door, it was good enough. We will defiantly come back when in town.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r153536744-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>153536744</t>
@@ -627,10 +830,7 @@
     <t>February 2013</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r152542485-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r152542485-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>152542485</t>
@@ -645,10 +845,7 @@
     <t>excellent services for the price you pay ! nice comfortable room , Pillows, mattress awesome.Plano Texas.Best was front desk check in attendants.close to the highways, not crowded area, clean ,comfortable .</t>
   </si>
   <si>
-    <t>travelers201168</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r151928032-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r151928032-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>151928032</t>
@@ -663,10 +860,40 @@
     <t>We have stayed here a number of time and the service is great the location is good and the rooms are clean.  Anyone traveling thru Plano would not be disappointed if looking for a goodbargin and a clean place.  The one down side is there is not a good place to walk a dog unlessyou go out by the street. This is an average mid price hotel they do have a lot of consturctionworkers of some type staying here.</t>
   </si>
   <si>
-    <t>Robert C</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r148248053-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r150977559-Red_Roof_Inn_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>150977559</t>
+  </si>
+  <si>
+    <t>01/29/2013</t>
+  </si>
+  <si>
+    <t>Nice Right Off the Highway</t>
+  </si>
+  <si>
+    <t>We have stayed at this location twice this month traveling back and forth from Houston.It is a very clean property inside and out.  And the rate was Very reasonable. There was some highway noise but we were in the very front of the hotel. Breakfast area was very clean and organized.It has the typical hotel breakfast offered. No Lobby computer but free wi-fi if you travel with your computer or tablet. Will probably return, staff very nice also.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r148803188-Red_Roof_Inn_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>148803188</t>
+  </si>
+  <si>
+    <t>01/04/2013</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>This is an excellent location for the business traveler.  The beds are comfortable and the rooms are a nice size.  There are three restaurants within easy walking distance (less than a city block).  They have free high speed wireless and great rates, but no business center and no computer for business customers.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r148248053-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>148248053</t>
@@ -681,7 +908,7 @@
     <t>We came for a long weekend and chose the hotel for its pet friendly policies.  Upon arrival Plano PD pulled man out of can in the parking lot at gun point.  My wife and I lay on the pavement for 20 minutes with our child stuck in a car seat while the felony stop occurred.  Spent the next 20 minutes cleaning out our shorts and waiting for all the flashing lights to stop.  Doors in this property are on the outside, not protected by an interior hallway.  Given the neighborhood and hotel clientele we won't be back!</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r147011123-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r147011123-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>147011123</t>
@@ -693,10 +920,7 @@
     <t>December 2012</t>
   </si>
   <si>
-    <t>percolator</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r145150438-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r145150438-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>145150438</t>
@@ -717,7 +941,34 @@
     <t>Where do I start?  Hairs in the bathroom sink, on the bathroom door, and on the floor, upon check-in.  And yet housekeeping still had the time to fold the toilet paper roll into a little V.  I wish they would have spent that time actually cleaning the room.  There was some disgusting black stuff on the base of the outside of the tub, looked like mold, but must have been sticky because there were hairs stuck all over it.  Ewwww.  Rusty bathroom fixtures, and the backing on the mirrors was peeling off.  The reviewer who said that this hotel was well maintained was sadly mistaken.  Denny's next door was closed for renovations, but there are plenty of eateries nearby, some within walking distance.  Front desk staff was very friendly and helpful.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r141576867-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r143203035-Red_Roof_Inn_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>143203035</t>
+  </si>
+  <si>
+    <t>10/19/2012</t>
+  </si>
+  <si>
+    <t>Poor Room Quality</t>
+  </si>
+  <si>
+    <t>Where can I begin?I informed the front desk about the water leak in the wall that was now in my room on Sunday.On Tuesday, a very nice man from your maintainence department came by and told me that he fixed the leak in the adjoining room-as I suspected all along.The rug was wet, mildew and musty.My first experience with LaQunita, I would have to say was very poor.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r142919521-Red_Roof_Inn_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>142919521</t>
+  </si>
+  <si>
+    <t>10/15/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r141576867-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>141576867</t>
@@ -735,10 +986,7 @@
     <t>September 2012</t>
   </si>
   <si>
-    <t>Nicole S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r140706673-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r140706673-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>140706673</t>
@@ -753,7 +1001,7 @@
     <t>Decent hotel. Nice location. Bed was ok but after a while got a little hard. Also the closest ice machine was broke but no biggie, just had to walk to the other side of the hotel. Also wished there was some scrambled eggs for the breakfast.</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r140360339-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r140360339-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>140360339</t>
@@ -762,7 +1010,25 @@
     <t>09/15/2012</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r138532528-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r140033486-Red_Roof_Inn_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>140033486</t>
+  </si>
+  <si>
+    <t>09/11/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r139520728-Red_Roof_Inn_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>139520728</t>
+  </si>
+  <si>
+    <t>09/05/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r138532528-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>138532528</t>
@@ -774,10 +1040,7 @@
     <t>August 2012</t>
   </si>
   <si>
-    <t>Mike B</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r137086356-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r137086356-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>137086356</t>
@@ -792,7 +1055,7 @@
     <t>My worst night's sleep of our family's ten day trip came at this hotel due to the noise throughout the night. Our room faced away from the highway, but we had to contend with neighbors who were talking throughout the night on the other side of the (exterior) wall of our room. The room itself was small and somewhat dated, but reasonably okay given the cost. Service was good, with the night desk clerk being very friendly and helpful upon check-in and the continental breakfast staff doing a fine job. Overall, not a bad value, but be aware of what you're going to get at this older hotel.</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r135427183-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r135427183-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>135427183</t>
@@ -810,7 +1073,40 @@
     <t>July 2012</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r132130546-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r134480363-Red_Roof_Inn_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>134480363</t>
+  </si>
+  <si>
+    <t>07/15/2012</t>
+  </si>
+  <si>
+    <t>Old hotel. Small rooms and beds. Semi-clean.</t>
+  </si>
+  <si>
+    <t>This is an older La Quinta. Not the cleanest hotel but not terrible. Gaps under the doors. Tubs were dirty. Beds were small but comfortable for one person. Noisy guests in the common area made it difficult to sleep. Price is kinda high for a hotel this old. Would stay here again only as a last resort.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r132733216-Red_Roof_Inn_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>132733216</t>
+  </si>
+  <si>
+    <t>06/25/2012</t>
+  </si>
+  <si>
+    <t>Good hotel</t>
+  </si>
+  <si>
+    <t>La Quinta Plano has a good price and a few extras that I really like.  First, the breakfast saved us a lot of time and money.  It had belgian waffles that you cook yourself, as well as muffins, bread, oatmeal, yogurt, bananas, apples, corn flakes, raisin bran, and froot loops.  A unique item was boiled eggs that you can eat as they are, or make egg sandwiches. Drinks were hot chocolate, milk, orange juice, and apple juice.Another thing we really enjoyed was the pool and picnic table area with umbrellas.  We sat out every night and some mornings and read. I also sat out with my tablet to work for a couple of hours during my stay.   That's another plus: the wireless internet was very fast.There are definitely fancier hotels, but for less than $60 per night, I feel good about the value I got for my money.  The staff was very pleasant and helpful also.  We encountered a small issue with our door handle, which was fixed within 30 minutes of reporting it.  Then, when I checked out, I was informed they were crediting my LaQuinta Returns account with some bonus points toward another stay just because I'd encountered the minor issue.  That was a nice suprise and makes me think this hotel is really about pleasing the guest.MoreShow less</t>
+  </si>
+  <si>
+    <t>La Quinta Plano has a good price and a few extras that I really like.  First, the breakfast saved us a lot of time and money.  It had belgian waffles that you cook yourself, as well as muffins, bread, oatmeal, yogurt, bananas, apples, corn flakes, raisin bran, and froot loops.  A unique item was boiled eggs that you can eat as they are, or make egg sandwiches. Drinks were hot chocolate, milk, orange juice, and apple juice.Another thing we really enjoyed was the pool and picnic table area with umbrellas.  We sat out every night and some mornings and read. I also sat out with my tablet to work for a couple of hours during my stay.   That's another plus: the wireless internet was very fast.There are definitely fancier hotels, but for less than $60 per night, I feel good about the value I got for my money.  The staff was very pleasant and helpful also.  We encountered a small issue with our door handle, which was fixed within 30 minutes of reporting it.  Then, when I checked out, I was informed they were crediting my LaQuinta Returns account with some bonus points toward another stay just because I'd encountered the minor issue.  That was a nice suprise and makes me think this hotel is really about pleasing the guest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r132130546-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>132130546</t>
@@ -819,7 +1115,7 @@
     <t>06/16/2012</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r131024304-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r131024304-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>131024304</t>
@@ -837,10 +1133,7 @@
     <t>May 2012</t>
   </si>
   <si>
-    <t>slimladyluvsdogs</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r130309889-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r130309889-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>130309889</t>
@@ -862,7 +1155,43 @@
 Negatives... New staff members should not be left to run things alone too soon, breakfast not on low carb diet (except boiled eggs), such a good rate that budget doers can collect in parking, grill out and drink beer close to others rooms (not often tho), sometimes I get a room I think is on the upgrade list (needs tub, toilet, paint, ac or carpet...I have stayed here at least 20 times in the last 2 years.  This is an older motel style (room door to outside) La Quinta.  I have seen a lot of changes and understand many conflicting reviews.  Number 1 quality of this location is the staff!  When I make last minute reservation during a busy time I have seen the rooms that are a little more worn than the others.  I prefer the king with fridge and microwave, seems they were first on list for the newer carpet, drapes, comforter and all minor wear/tear updated.  Positives... Nice helpful Staff, "never out of items" breakfast, clean pool, most usually quiet area, Denny's next door, NEW flat screen large HD TVs, now has multiple outlet adapters for phone charging/laptop connection, free speedy reliable wi-fi, free tech support when laptop is having trouble connecting (usually my end),  feel safe walking dog at night most of the time (visitor types do change.. noted below), room is usually very clean and fresh smelling, dark out drapes and really comfy bed!!Negatives... New staff members should not be left to run things alone too soon, breakfast not on low carb diet (except boiled eggs), such a good rate that budget doers can collect in parking, grill out and drink beer close to others rooms (not often tho), sometimes I get a room I think is on the upgrade list (needs tub, toilet, paint, ac or carpet updated). Recently... I think the loss of a great, really hands-on, almost always there.. Manager has "moved on".  Since then the rooms and exterior have not been as clean or the large groups that come along are not objected with words of quieting down or running a muck. You know those mostly teen groups (church, teams, etc) that are all excited about a venture out of town that can make the place look over run with unruly types.  Seems the staff is loosing it's touch... more doggie poop, more trash about, less pretty plants, not shutting down pool time, etc.BUT MOST RECENTLY in the last 3 stays.. Police seem to have taken on the new role of the old manager.  I am a law abiding citizen, but having 6 police cars in the lot at a time made me uncomfortable and suspicious...  Spoke to staff and seems nothing really bad going on beyond any other hotel (a woman having multiple visitors and too many teens running around loudly).  Again I think it is because they need that Manager back or one like her.For the price and location this is a nice and comfortable place to stay.  This is not a newer place.  This is not a 4 or 5 star hotel.  I personally like not having to walk down a warm, stenchy hallway to get to my room at this price.  I can see my car out my window.  I can step outside in one second if I need to get something from my car or have a quick smoke without having a smelly 'smokers room'.I do think that not having an ice maker on the first level is silly especially for the handicap.  Please get back that Manager or get one like her soon!More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r125282101-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r126520875-Red_Roof_Inn_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>126520875</t>
+  </si>
+  <si>
+    <t>03/22/2012</t>
+  </si>
+  <si>
+    <t>Plano, TX</t>
+  </si>
+  <si>
+    <t>As far as La Quinta's go, average.  Rooms were non-smoking rooms, but could tell upon opening the door, someone had smoked in them at one time or another.  Beds were okay, linens were clean.  Room could have used a deep cleaning, but were okay.  Breakfast was provided,  but we left the hotel each morning before eating, so I can not comment on that.  The vanity area does not have a door on it; when you turn the light on, it lights up the whole room.Easy access from the interstate.  Nice tv.  Target nearby.  I would stay here again if I returned to this area.  Front desk was prompt and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>As far as La Quinta's go, average.  Rooms were non-smoking rooms, but could tell upon opening the door, someone had smoked in them at one time or another.  Beds were okay, linens were clean.  Room could have used a deep cleaning, but were okay.  Breakfast was provided,  but we left the hotel each morning before eating, so I can not comment on that.  The vanity area does not have a door on it; when you turn the light on, it lights up the whole room.Easy access from the interstate.  Nice tv.  Target nearby.  I would stay here again if I returned to this area.  Front desk was prompt and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r126398346-Red_Roof_Inn_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>126398346</t>
+  </si>
+  <si>
+    <t>03/20/2012</t>
+  </si>
+  <si>
+    <t>Will stay again</t>
+  </si>
+  <si>
+    <t>This hotel was at a great location for the places we visited and restaurants near by. The morning Lady who did breakfast was so nice and had plenty of items out. The Lady Nadine who checked us in was great!!! She was the nicest person I have ever had at a Hotel she was friendly and went out of her way to help us with everything we needed. The beds were comfortable and rooms were clean and it was a quiet stay. I will be staying there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r125282101-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>125282101</t>
@@ -874,10 +1203,7 @@
     <t>February 2012</t>
   </si>
   <si>
-    <t>nanapsmith</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r123501158-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r123501158-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>123501158</t>
@@ -895,10 +1221,7 @@
     <t>January 2012</t>
   </si>
   <si>
-    <t>Horizontal_Sleeper</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r118587211-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r118587211-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>118587211</t>
@@ -919,10 +1242,47 @@
     <t>Well, I personally do not prefer staying in La Quinta unless I have to. But when I do not have any other choice, at least I know what I can expect from them and I always got it. I appreciate that standardization. It offers an average breakfast, with plenty of fruits, cereals, bagels, cream cheese and cakes or waffles. Coffee is always good. Staff is really helpful, they changed my room because the one I got was really noisy.This hotel and the decor are pretty old. My room was smelling like smoke. Towels and sheets were not really clean but the bed was comfortable. The hotel is close to highway (again as expected), has a swimming pool (which I did not use) and parking space.  The highway causes significant noise in the night, so try to choose a room facing the back yard.More</t>
   </si>
   <si>
-    <t>joeingoal</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r89258150-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r116921308-Red_Roof_Inn_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>116921308</t>
+  </si>
+  <si>
+    <t>08/18/2011</t>
+  </si>
+  <si>
+    <t>OK for basic needs</t>
+  </si>
+  <si>
+    <t>The staff was great - friendly, very eager to help, accomodating.  Breakfast was nice and the server gave us extra time when we arrived 10 minutes before closing at 9 a.m.  The rooms looked fine and seemed very clean with newer carpet and comforters.  The problems are due to the age of the facility, mostly.  There is no elevator, so we took a ground floor room.   Our room ( two double beds) was small with a very small bathroom/vanity.   It was quiet and the a/c worked well. The beds were OK, though the linen, while clean and good quality, was skimmpy and easily slipped off the mattresses at the corners.  There weren't sufficient electrical outlets - we could only find two - one in the vanity area and one under the desk, so charging assorted phones, a laptop, and grandson's DVD player was a challenge.   We needed to use the Internet and had difficulty with the connection.  The staff helped us with that, but the server was extremely slow - very frustrating.
+We used the pool is a basic rectangle (though a spa was mentioned in the rules list, there was none).  The pool is missing border tiles, the security gate was not safe as it did not close completely, and the water was not as clean as it should be. 
+If, however, you are looking for a room just to sleep in and don't need frills, this is the...The staff was great - friendly, very eager to help, accomodating.  Breakfast was nice and the server gave us extra time when we arrived 10 minutes before closing at 9 a.m.  The rooms looked fine and seemed very clean with newer carpet and comforters.  The problems are due to the age of the facility, mostly.  There is no elevator, so we took a ground floor room.   Our room ( two double beds) was small with a very small bathroom/vanity.   It was quiet and the a/c worked well. The beds were OK, though the linen, while clean and good quality, was skimmpy and easily slipped off the mattresses at the corners.  There weren't sufficient electrical outlets - we could only find two - one in the vanity area and one under the desk, so charging assorted phones, a laptop, and grandson's DVD player was a challenge.   We needed to use the Internet and had difficulty with the connection.  The staff helped us with that, but the server was extremely slow - very frustrating.We used the pool is a basic rectangle (though a spa was mentioned in the rules list, there was none).  The pool is missing border tiles, the security gate was not safe as it did not close completely, and the water was not as clean as it should be. If, however, you are looking for a room just to sleep in and don't need frills, this is the place for you.  The price is right.MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff was great - friendly, very eager to help, accomodating.  Breakfast was nice and the server gave us extra time when we arrived 10 minutes before closing at 9 a.m.  The rooms looked fine and seemed very clean with newer carpet and comforters.  The problems are due to the age of the facility, mostly.  There is no elevator, so we took a ground floor room.   Our room ( two double beds) was small with a very small bathroom/vanity.   It was quiet and the a/c worked well. The beds were OK, though the linen, while clean and good quality, was skimmpy and easily slipped off the mattresses at the corners.  There weren't sufficient electrical outlets - we could only find two - one in the vanity area and one under the desk, so charging assorted phones, a laptop, and grandson's DVD player was a challenge.   We needed to use the Internet and had difficulty with the connection.  The staff helped us with that, but the server was extremely slow - very frustrating.
+We used the pool is a basic rectangle (though a spa was mentioned in the rules list, there was none).  The pool is missing border tiles, the security gate was not safe as it did not close completely, and the water was not as clean as it should be. 
+If, however, you are looking for a room just to sleep in and don't need frills, this is the...The staff was great - friendly, very eager to help, accomodating.  Breakfast was nice and the server gave us extra time when we arrived 10 minutes before closing at 9 a.m.  The rooms looked fine and seemed very clean with newer carpet and comforters.  The problems are due to the age of the facility, mostly.  There is no elevator, so we took a ground floor room.   Our room ( two double beds) was small with a very small bathroom/vanity.   It was quiet and the a/c worked well. The beds were OK, though the linen, while clean and good quality, was skimmpy and easily slipped off the mattresses at the corners.  There weren't sufficient electrical outlets - we could only find two - one in the vanity area and one under the desk, so charging assorted phones, a laptop, and grandson's DVD player was a challenge.   We needed to use the Internet and had difficulty with the connection.  The staff helped us with that, but the server was extremely slow - very frustrating.We used the pool is a basic rectangle (though a spa was mentioned in the rules list, there was none).  The pool is missing border tiles, the security gate was not safe as it did not close completely, and the water was not as clean as it should be. If, however, you are looking for a room just to sleep in and don't need frills, this is the place for you.  The price is right.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r114791003-Red_Roof_Inn_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>114791003</t>
+  </si>
+  <si>
+    <t>06/27/2011</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t>Stayed here because the location seemed pretty good for my business trip.  The exterior of the place wasn't all that inviting, but for the most part it was clean and no issues.  This is the friendliest bunch of people I have ever encountered in my travels and that made the experience quite pleasant.  Rooms were fine, clean, again, no complaints.  Got my wake up call on time - a real test in my book.  Breakfast was decent, beds and pillows were pretty comfy and bathroom was clean.  For the money, not bad and I would stay here again.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r89258150-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>89258150</t>
@@ -940,10 +1300,7 @@
     <t>December 2010</t>
   </si>
   <si>
-    <t>Gzornoplat</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r84686818-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r84686818-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>84686818</t>
@@ -968,10 +1325,7 @@
 The hotel is a fair value, but there are some drawbacks to be aware of.  We had a handicap-accessible room, so it was on the first floor.  However, the only ice machine was on the second floor.  The room had no refrigerator or microwave.  The front desk offered to have a refrigerator brought to our room...for an extra $10 per night.  Our heating unit kept making an annoying clicking sound, as if the thermostat was faulty.  The maintenance man was off for the night when we arrived, so he didn't come until the next morning, and he spoke mostly Spanish--very little English.  The tile around the bathtub spigot was cracked, the tub's water pressure was low, and the shower wand was missing the height-adjustable hook, so it couldn't be mounted high enough for a 6-foot tall...Just in case I selected the wrong La Quinta from TripAdvisor's menu, this review refers to the La Quinta at 1820 North Central Expressway in Plano, Texas.I stayed in this hotel for three nights, with my wife, mother, and two cats.  We chose this one due to La Quinta's pet-friendly policy, and the proximity of this particular La Quinta to my uncle's house, which was the purpose of our visit to Plano.  On a previous cross-country trip, my wife and I (and our cats) stayed in La Quintas all the way from California to Mississippi, so I have a fair basis for comparison.The hotel is a fair value, but there are some drawbacks to be aware of.  We had a handicap-accessible room, so it was on the first floor.  However, the only ice machine was on the second floor.  The room had no refrigerator or microwave.  The front desk offered to have a refrigerator brought to our room...for an extra $10 per night.  Our heating unit kept making an annoying clicking sound, as if the thermostat was faulty.  The maintenance man was off for the night when we arrived, so he didn't come until the next morning, and he spoke mostly Spanish--very little English.  The tile around the bathtub spigot was cracked, the tub's water pressure was low, and the shower wand was missing the height-adjustable hook, so it couldn't be mounted high enough for a 6-foot tall person.  Our room was near the back entrance to the lobby, and the lobby door slammed very loudly every time someone used it, which seemed to go on all night.  We told the maintenance man and the front desk about this, but it was still not fixed the next night.  Overall, I would recommend you find another hotel, unless this one just happens to be extremely convenient to you based on its location, as was the case for us.More</t>
   </si>
   <si>
-    <t>lizandkatiemama</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r46239371-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r46239371-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>46239371</t>
@@ -989,10 +1343,64 @@
     <t>June 2009</t>
   </si>
   <si>
-    <t>carleybreanne</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r11007572-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r41066590-Red_Roof_Inn_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>41066590</t>
+  </si>
+  <si>
+    <t>09/12/2009</t>
+  </si>
+  <si>
+    <t>location and staff are great, place needs updating‎</t>
+  </si>
+  <si>
+    <t>this is the best staff i have ever seen after staying in hotels for the past 30 days, great price for this place could use some updateding but then it would be more expensive. location is great for plano access. 3 stars for dated decor and cleanlyness</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r28240262-Red_Roof_Inn_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>28240262</t>
+  </si>
+  <si>
+    <t>04/17/2009</t>
+  </si>
+  <si>
+    <t>Not my favorite Hotel...</t>
+  </si>
+  <si>
+    <t>To start off I will point out the positives of the stay. 
+1. It was convient and in the middle of everything. The Plano Convention Center and the Allen Outlet Mall wasn't very far away.
+2. The hotel staff was friendly.
+3. The lobby area was very nice looking, so I was thinking... "this may not be so bad." 
+4. The air conditioner worked really well.
+I read the reviews on tripadvisor and braced myself (my job booked and paid for this so I didn't feel complaining to anyone would be very nice. I am just going to state the facts of my stay.
+Now for the negatives... And yes I have stayed at a La Quinta before, it was a new one in Branson, MO so I had expectations. 
+1. Over powering air freshener in the room. It stunk bad! Made me think... what are they hiding....
+2. Strange stains yellowish stains on the sheets and the pillow cases... I took the pillow case off and though "oh I don't need a pillow case," bad idea I didn't need to see that. Thankfully I brought my own pillow, but the colleagues I was traveling with did not.. 
+3. I was traveling with 7 other people. In one of my colleagues rooms, they found a used q-tip in their sheets. I am not making this up! Gross! After that, we were all on edge. We went to Target and bought...To start off I will point out the positives of the stay. 1. It was convient and in the middle of everything. The Plano Convention Center and the Allen Outlet Mall wasn't very far away.2. The hotel staff was friendly.3. The lobby area was very nice looking, so I was thinking... "this may not be so bad." 4. The air conditioner worked really well.I read the reviews on tripadvisor and braced myself (my job booked and paid for this so I didn't feel complaining to anyone would be very nice. I am just going to state the facts of my stay.Now for the negatives... And yes I have stayed at a La Quinta before, it was a new one in Branson, MO so I had expectations. 1. Over powering air freshener in the room. It stunk bad! Made me think... what are they hiding....2. Strange stains yellowish stains on the sheets and the pillow cases... I took the pillow case off and though "oh I don't need a pillow case," bad idea I didn't need to see that. Thankfully I brought my own pillow, but the colleagues I was traveling with did not.. 3. I was traveling with 7 other people. In one of my colleagues rooms, they found a used q-tip in their sheets. I am not making this up! Gross! After that, we were all on edge. We went to Target and bought blankets and pillows. 4. The rooms were remodeled- new paint and updated furniture. The corners of the room looked like they hadn't ever been touched by a vacumn. 5. Horrible toilet paper! If you stay here... bring your own! (I know, strange to comment on, but seriously, it was horrible.)6. The TV was hard to work. After a while we finally figured out how to work  it. (Yes I know to push the on button, but it takes you to this menu channel when you turn it on. Then it tells you to push the up and down arrows to go to the channels.) Well that never worked it kept taking up to the menu to buy movies no matter if we went up or down... same thing. Finally we unplugged the tv and plugged it back in, turned it on and then it worked... I don't know how that fixed it, but it worked.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>To start off I will point out the positives of the stay. 
+1. It was convient and in the middle of everything. The Plano Convention Center and the Allen Outlet Mall wasn't very far away.
+2. The hotel staff was friendly.
+3. The lobby area was very nice looking, so I was thinking... "this may not be so bad." 
+4. The air conditioner worked really well.
+I read the reviews on tripadvisor and braced myself (my job booked and paid for this so I didn't feel complaining to anyone would be very nice. I am just going to state the facts of my stay.
+Now for the negatives... And yes I have stayed at a La Quinta before, it was a new one in Branson, MO so I had expectations. 
+1. Over powering air freshener in the room. It stunk bad! Made me think... what are they hiding....
+2. Strange stains yellowish stains on the sheets and the pillow cases... I took the pillow case off and though "oh I don't need a pillow case," bad idea I didn't need to see that. Thankfully I brought my own pillow, but the colleagues I was traveling with did not.. 
+3. I was traveling with 7 other people. In one of my colleagues rooms, they found a used q-tip in their sheets. I am not making this up! Gross! After that, we were all on edge. We went to Target and bought...To start off I will point out the positives of the stay. 1. It was convient and in the middle of everything. The Plano Convention Center and the Allen Outlet Mall wasn't very far away.2. The hotel staff was friendly.3. The lobby area was very nice looking, so I was thinking... "this may not be so bad." 4. The air conditioner worked really well.I read the reviews on tripadvisor and braced myself (my job booked and paid for this so I didn't feel complaining to anyone would be very nice. I am just going to state the facts of my stay.Now for the negatives... And yes I have stayed at a La Quinta before, it was a new one in Branson, MO so I had expectations. 1. Over powering air freshener in the room. It stunk bad! Made me think... what are they hiding....2. Strange stains yellowish stains on the sheets and the pillow cases... I took the pillow case off and though "oh I don't need a pillow case," bad idea I didn't need to see that. Thankfully I brought my own pillow, but the colleagues I was traveling with did not.. 3. I was traveling with 7 other people. In one of my colleagues rooms, they found a used q-tip in their sheets. I am not making this up! Gross! After that, we were all on edge. We went to Target and bought blankets and pillows. 4. The rooms were remodeled- new paint and updated furniture. The corners of the room looked like they hadn't ever been touched by a vacumn. 5. Horrible toilet paper! If you stay here... bring your own! (I know, strange to comment on, but seriously, it was horrible.)6. The TV was hard to work. After a while we finally figured out how to work  it. (Yes I know to push the on button, but it takes you to this menu channel when you turn it on. Then it tells you to push the up and down arrows to go to the channels.) Well that never worked it kept taking up to the menu to buy movies no matter if we went up or down... same thing. Finally we unplugged the tv and plugged it back in, turned it on and then it worked... I don't know how that fixed it, but it worked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r11007572-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>11007572</t>
@@ -1010,10 +1418,7 @@
     <t>November 2007</t>
   </si>
   <si>
-    <t>jwrob1</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r8073281-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r8073281-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>8073281</t>
@@ -1031,10 +1436,7 @@
     <t>July 2007</t>
   </si>
   <si>
-    <t>sportstravelerTexas</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r7301820-Motel_6_Dallas_Plano_Southeast-Plano_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r7301820-Red_Roof_Inn_Plano-Plano_Texas.html</t>
   </si>
   <si>
     <t>7301820</t>
@@ -1050,6 +1452,39 @@
   </si>
   <si>
     <t>April 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r7280279-Red_Roof_Inn_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>7280279</t>
+  </si>
+  <si>
+    <t>04/03/2007</t>
+  </si>
+  <si>
+    <t>Poor management, older motel</t>
+  </si>
+  <si>
+    <t>Very poor manager.  Even with elite status in the LaQuinta Returns program and staying there an extended time -  when the credit card had problems -made no personal contact to fix expect a message on hotel phone. After working hard all day, returned to room at night  was locked out of room and could not get stuff out til payment in full was made. Manager could not be reached - left the poor night clerk to be this bad person.  Hotel has "issues" that a older hotel has with fixtures and plumbing.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106478-r5924383-Red_Roof_Inn_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>5924383</t>
+  </si>
+  <si>
+    <t>10/06/2006</t>
+  </si>
+  <si>
+    <t>Cheap rates but dirty rooms</t>
+  </si>
+  <si>
+    <t>I checked in on October 6 2006 for one night. The first room assigned (112) smelled like animal urine. The second room (110) smelled okay but it is not clean. The in-room coffee maker has "stuff" floating in the water chamber and it smells like someone sprayed disinfectant in it. The rugs require wearing socks all the time. The usual refrigerator and microwave is missing. On a positive note, the staff was very courteous and Denny's Restaurant is next door. Far less quality and cleanliness than the usual La Quinta Inn.</t>
+  </si>
+  <si>
+    <t>October 2006</t>
   </si>
 </sst>
 </file>
@@ -1554,59 +1989,53 @@
       <c r="A2" t="n">
         <v>5201</v>
       </c>
-      <c r="B2" t="n">
-        <v>169327</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
       <c r="P2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1614,127 +2043,125 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5201</v>
       </c>
-      <c r="B3" t="n">
-        <v>169328</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5201</v>
       </c>
-      <c r="B4" t="n">
-        <v>18332</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
         <v>67</v>
       </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" t="s">
-        <v>71</v>
-      </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1742,133 +2169,119 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5201</v>
       </c>
-      <c r="B5" t="n">
-        <v>1099</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>73</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="O5" t="s">
         <v>74</v>
       </c>
-      <c r="J5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>78</v>
-      </c>
-      <c r="O5" t="s">
-        <v>54</v>
-      </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5201</v>
       </c>
-      <c r="B6" t="n">
-        <v>169329</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
         <v>80</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>81</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" t="s">
-        <v>85</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>86</v>
-      </c>
       <c r="O6" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
       <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>4</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1876,265 +2289,245 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5201</v>
       </c>
-      <c r="B7" t="n">
-        <v>169330</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>1</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5201</v>
       </c>
-      <c r="B8" t="n">
-        <v>169331</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="O8" t="s">
-        <v>101</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>102</v>
-      </c>
-      <c r="X8" t="s">
-        <v>103</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5201</v>
       </c>
-      <c r="B9" t="n">
-        <v>19460</v>
-      </c>
-      <c r="C9" t="s">
-        <v>105</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>112</v>
-      </c>
-      <c r="X9" t="s">
-        <v>113</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5201</v>
       </c>
-      <c r="B10" t="n">
-        <v>169332</v>
-      </c>
-      <c r="C10" t="s">
-        <v>115</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s">
-        <v>71</v>
-      </c>
-      <c r="P10" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>1</v>
-      </c>
-      <c r="S10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -2142,66 +2535,62 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5201</v>
       </c>
-      <c r="B11" t="n">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>123</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="O11" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q11" t="n">
         <v>1</v>
       </c>
-      <c r="R11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -2209,339 +2598,308 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5201</v>
       </c>
-      <c r="B12" t="n">
-        <v>42729</v>
-      </c>
-      <c r="C12" t="s">
-        <v>132</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="O12" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5201</v>
       </c>
-      <c r="B13" t="n">
-        <v>169333</v>
-      </c>
-      <c r="C13" t="s">
-        <v>137</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="O13" t="s">
-        <v>71</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
       <c r="R13" t="n">
-        <v>3</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>127</v>
+      </c>
+      <c r="X13" t="s">
+        <v>128</v>
+      </c>
       <c r="Y13" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>5201</v>
       </c>
-      <c r="B14" t="n">
-        <v>89359</v>
-      </c>
-      <c r="C14" t="s">
-        <v>144</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="J14" t="s">
-        <v>147</v>
-      </c>
-      <c r="K14" t="s"/>
-      <c r="L14" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="K14" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s">
+        <v>134</v>
+      </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="O14" t="s">
-        <v>71</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>135</v>
+      </c>
+      <c r="X14" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>5201</v>
       </c>
-      <c r="B15" t="n">
-        <v>70551</v>
-      </c>
-      <c r="C15" t="s">
-        <v>149</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="J15" t="s">
-        <v>152</v>
-      </c>
-      <c r="K15" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="K15" t="s">
+        <v>141</v>
+      </c>
       <c r="L15" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="O15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>144</v>
+      </c>
+      <c r="X15" t="s">
+        <v>145</v>
+      </c>
       <c r="Y15" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>5201</v>
       </c>
-      <c r="B16" t="n">
-        <v>169334</v>
-      </c>
-      <c r="C16" t="s">
-        <v>155</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="J16" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="K16" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="L16" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="O16" t="s">
-        <v>71</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
       <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2549,132 +2907,125 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>5201</v>
       </c>
-      <c r="B17" t="n">
-        <v>6779</v>
-      </c>
-      <c r="C17" t="s">
-        <v>162</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="J17" t="s">
-        <v>165</v>
-      </c>
-      <c r="K17" t="s"/>
-      <c r="L17" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="K17" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" t="s">
+        <v>158</v>
+      </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="O17" t="s">
-        <v>71</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
       <c r="R17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>5201</v>
       </c>
-      <c r="B18" t="n">
-        <v>29799</v>
-      </c>
-      <c r="C18" t="s">
-        <v>167</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="J18" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="K18" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="L18" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
-      </c>
-      <c r="N18" t="s">
-        <v>173</v>
-      </c>
-      <c r="O18" t="s">
-        <v>71</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
       <c r="P18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2682,70 +3033,62 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>5201</v>
       </c>
-      <c r="B19" t="n">
-        <v>51393</v>
-      </c>
-      <c r="C19" t="s">
-        <v>174</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="J19" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="K19" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="O19" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="P19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>3</v>
-      </c>
-      <c r="R19" t="n">
-        <v>3</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2753,67 +3096,59 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>5201</v>
       </c>
-      <c r="B20" t="n">
-        <v>169335</v>
-      </c>
-      <c r="C20" t="s">
-        <v>180</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="J20" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="K20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="O20" t="s">
-        <v>101</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="n">
         <v>5</v>
       </c>
       <c r="R20" t="n">
-        <v>4</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
         <v>5</v>
@@ -2824,70 +3159,66 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>5201</v>
       </c>
-      <c r="B21" t="n">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>187</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="J21" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K21" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="L21" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O21" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2895,167 +3226,159 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>5201</v>
       </c>
-      <c r="B22" t="n">
-        <v>119345</v>
-      </c>
-      <c r="C22" t="s">
-        <v>193</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="J22" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="K22" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O22" t="s">
-        <v>62</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>5201</v>
       </c>
-      <c r="B23" t="n">
-        <v>7548</v>
-      </c>
-      <c r="C23" t="s">
-        <v>199</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="J23" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="K23" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="L23" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+      <c r="N23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>5201</v>
       </c>
-      <c r="B24" t="n">
-        <v>70551</v>
-      </c>
-      <c r="C24" t="s">
-        <v>149</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="J24" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="K24" t="s"/>
       <c r="L24" t="s"/>
@@ -3063,19 +3386,19 @@
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="O24" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="P24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q24" t="n">
         <v>5</v>
       </c>
       <c r="R24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3087,68 +3410,65 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>5201</v>
       </c>
-      <c r="B25" t="n">
-        <v>169336</v>
-      </c>
-      <c r="C25" t="s">
-        <v>209</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="J25" t="s">
-        <v>212</v>
-      </c>
-      <c r="K25" t="s">
-        <v>213</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="K25" t="s"/>
       <c r="L25" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="O25" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R25" t="n">
         <v>5</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3156,66 +3476,62 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>5201</v>
       </c>
-      <c r="B26" t="n">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>187</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="J26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="K26" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="L26" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="O26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
       </c>
       <c r="Q26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R26" t="n">
         <v>5</v>
       </c>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
@@ -3227,70 +3543,66 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>5201</v>
       </c>
-      <c r="B27" t="n">
-        <v>27971</v>
-      </c>
-      <c r="C27" t="s">
-        <v>223</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="J27" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="K27" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="L27" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="O27" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="P27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -3298,39 +3610,35 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>5201</v>
       </c>
-      <c r="B28" t="n">
-        <v>70551</v>
-      </c>
-      <c r="C28" t="s">
-        <v>149</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="J28" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="K28" t="s"/>
       <c r="L28" t="s"/>
@@ -3338,16 +3646,16 @@
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O28" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
       </c>
       <c r="Q28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R28" t="n">
         <v>5</v>
@@ -3362,54 +3670,53 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>5201</v>
       </c>
-      <c r="B29" t="n">
-        <v>70551</v>
-      </c>
-      <c r="C29" t="s">
-        <v>149</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="J29" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="K29" t="s"/>
       <c r="L29" t="s"/>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="O29" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
       </c>
       <c r="Q29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R29" t="n">
         <v>5</v>
@@ -3424,55 +3731,54 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>5201</v>
       </c>
-      <c r="B30" t="n">
-        <v>2674</v>
-      </c>
-      <c r="C30" t="s">
-        <v>236</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="J30" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="K30" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="L30" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="O30" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q30" t="n">
         <v>3</v>
@@ -3493,70 +3799,66 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>5201</v>
       </c>
-      <c r="B31" t="n">
-        <v>7</v>
-      </c>
-      <c r="C31" t="s">
-        <v>187</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="J31" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="K31" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="L31" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="O31" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
       </c>
       <c r="Q31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3564,52 +3866,46 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>5201</v>
       </c>
-      <c r="B32" t="n">
-        <v>70551</v>
-      </c>
-      <c r="C32" t="s">
-        <v>149</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="J32" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="K32" t="s"/>
-      <c r="L32" t="s">
-        <v>153</v>
-      </c>
+      <c r="L32" t="s"/>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>173</v>
+        <v>236</v>
       </c>
       <c r="O32" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3618,69 +3914,63 @@
         <v>4</v>
       </c>
       <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
         <v>4</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
-      <c r="Y32" t="s">
-        <v>154</v>
-      </c>
+      <c r="Y32" t="s"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>5201</v>
       </c>
-      <c r="B33" t="n">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
-        <v>187</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="J33" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="K33" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="L33" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="O33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3704,66 +3994,62 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>5201</v>
       </c>
-      <c r="B34" t="n">
-        <v>169337</v>
-      </c>
-      <c r="C34" t="s">
-        <v>257</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="J34" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="K34" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="L34" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="O34" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
       </c>
       <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
         <v>4</v>
       </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
@@ -3775,50 +4061,50 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>5201</v>
       </c>
-      <c r="B35" t="n">
-        <v>70551</v>
-      </c>
-      <c r="C35" t="s">
-        <v>149</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="J35" t="s">
-        <v>266</v>
-      </c>
-      <c r="K35" t="s"/>
-      <c r="L35" t="s"/>
+        <v>250</v>
+      </c>
+      <c r="K35" t="s">
+        <v>251</v>
+      </c>
+      <c r="L35" t="s">
+        <v>252</v>
+      </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="O35" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -3839,64 +4125,65 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>5201</v>
       </c>
-      <c r="B36" t="n">
-        <v>169338</v>
-      </c>
-      <c r="C36" t="s">
-        <v>268</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="J36" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="K36" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="L36" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="O36" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="P36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R36" t="n">
         <v>5</v>
       </c>
       <c r="S36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
@@ -3908,66 +4195,62 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>5201</v>
       </c>
-      <c r="B37" t="n">
-        <v>101966</v>
-      </c>
-      <c r="C37" t="s">
-        <v>275</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="J37" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="K37" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="L37" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="M37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="O37" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="P37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
@@ -3979,273 +4262,247 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>5201</v>
       </c>
-      <c r="B38" t="n">
-        <v>169339</v>
-      </c>
-      <c r="C38" t="s">
-        <v>283</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="J38" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="K38" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="L38" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="O38" t="s">
-        <v>101</v>
-      </c>
-      <c r="P38" t="s"/>
-      <c r="Q38" t="s"/>
-      <c r="R38" t="s"/>
-      <c r="S38" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>5201</v>
       </c>
-      <c r="B39" t="n">
-        <v>169340</v>
-      </c>
-      <c r="C39" t="s">
-        <v>290</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="J39" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="K39" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L39" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
-      </c>
-      <c r="N39" t="s">
-        <v>296</v>
-      </c>
-      <c r="O39" t="s">
-        <v>71</v>
-      </c>
-      <c r="P39" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q39" t="n">
         <v>2</v>
       </c>
-      <c r="R39" t="n">
-        <v>3</v>
-      </c>
-      <c r="S39" t="n">
-        <v>4</v>
-      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>3</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>5201</v>
       </c>
-      <c r="B40" t="n">
-        <v>169341</v>
-      </c>
-      <c r="C40" t="s">
-        <v>298</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="J40" t="s">
-        <v>301</v>
-      </c>
-      <c r="K40" t="s">
-        <v>302</v>
-      </c>
-      <c r="L40" t="s">
-        <v>303</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
       <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>277</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
         <v>4</v>
       </c>
-      <c r="N40" t="s">
-        <v>304</v>
-      </c>
-      <c r="O40" t="s">
-        <v>71</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>4</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
-      <c r="Y40" t="s">
-        <v>303</v>
-      </c>
+      <c r="Y40" t="s"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>5201</v>
       </c>
-      <c r="B41" t="n">
-        <v>169342</v>
-      </c>
-      <c r="C41" t="s">
-        <v>305</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="J41" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="K41" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="L41" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="O41" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
       </c>
       <c r="R41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S41" t="n">
         <v>1</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -4253,70 +4510,66 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>5201</v>
       </c>
-      <c r="B42" t="n">
-        <v>169343</v>
-      </c>
-      <c r="C42" t="s">
-        <v>312</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="J42" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="K42" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="L42" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="O42" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="P42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R42" t="n">
         <v>4</v>
       </c>
       <c r="S42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -4324,78 +4577,2028 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>5201</v>
       </c>
-      <c r="B43" t="n">
-        <v>147346</v>
-      </c>
-      <c r="C43" t="s">
-        <v>319</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="J43" t="s">
-        <v>322</v>
-      </c>
-      <c r="K43" t="s">
-        <v>323</v>
-      </c>
-      <c r="L43" t="s">
-        <v>324</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
       <c r="M43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="O43" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
         <v>4</v>
       </c>
-      <c r="Q43" t="n">
-        <v>3</v>
-      </c>
       <c r="R43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
-      <c r="Y43" t="s">
+      <c r="Y43" t="s"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>294</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>295</v>
+      </c>
+      <c r="J44" t="s">
+        <v>296</v>
+      </c>
+      <c r="K44" t="s">
+        <v>297</v>
+      </c>
+      <c r="L44" t="s">
+        <v>298</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>299</v>
+      </c>
+      <c r="O44" t="s">
+        <v>67</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>300</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>301</v>
+      </c>
+      <c r="J45" t="s">
+        <v>302</v>
+      </c>
+      <c r="K45" t="s">
+        <v>303</v>
+      </c>
+      <c r="L45" t="s">
+        <v>304</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>299</v>
+      </c>
+      <c r="O45" t="s">
+        <v>67</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>305</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>306</v>
+      </c>
+      <c r="J46" t="s">
+        <v>307</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s"/>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>299</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>308</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>309</v>
+      </c>
+      <c r="J47" t="s">
+        <v>310</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>299</v>
+      </c>
+      <c r="O47" t="s">
+        <v>172</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>311</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>312</v>
+      </c>
+      <c r="J48" t="s">
+        <v>313</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s"/>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>299</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>314</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>315</v>
+      </c>
+      <c r="J49" t="s">
+        <v>316</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s"/>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>317</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>318</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>319</v>
+      </c>
+      <c r="J50" t="s">
+        <v>320</v>
+      </c>
+      <c r="K50" t="s">
+        <v>321</v>
+      </c>
+      <c r="L50" t="s">
+        <v>322</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>317</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>323</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
         <v>324</v>
+      </c>
+      <c r="J51" t="s">
+        <v>325</v>
+      </c>
+      <c r="K51" t="s">
+        <v>326</v>
+      </c>
+      <c r="L51" t="s">
+        <v>327</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>328</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>329</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>330</v>
+      </c>
+      <c r="J52" t="s">
+        <v>331</v>
+      </c>
+      <c r="K52" t="s">
+        <v>332</v>
+      </c>
+      <c r="L52" t="s">
+        <v>333</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>328</v>
+      </c>
+      <c r="O52" t="s">
+        <v>172</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>2</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>334</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>335</v>
+      </c>
+      <c r="J53" t="s">
+        <v>336</v>
+      </c>
+      <c r="K53" t="s">
+        <v>337</v>
+      </c>
+      <c r="L53" t="s">
+        <v>338</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>227</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>340</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>341</v>
+      </c>
+      <c r="J54" t="s">
+        <v>342</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s">
+        <v>203</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>227</v>
+      </c>
+      <c r="O54" t="s">
+        <v>74</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>343</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>344</v>
+      </c>
+      <c r="J55" t="s">
+        <v>345</v>
+      </c>
+      <c r="K55" t="s">
+        <v>346</v>
+      </c>
+      <c r="L55" t="s">
+        <v>347</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>348</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>349</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>350</v>
+      </c>
+      <c r="J56" t="s">
+        <v>351</v>
+      </c>
+      <c r="K56" t="s">
+        <v>352</v>
+      </c>
+      <c r="L56" t="s">
+        <v>353</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>348</v>
+      </c>
+      <c r="O56" t="s">
+        <v>67</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>355</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>356</v>
+      </c>
+      <c r="J57" t="s">
+        <v>357</v>
+      </c>
+      <c r="K57" t="s">
+        <v>358</v>
+      </c>
+      <c r="L57" t="s">
+        <v>359</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>360</v>
+      </c>
+      <c r="O57" t="s">
+        <v>120</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>362</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>363</v>
+      </c>
+      <c r="J58" t="s">
+        <v>364</v>
+      </c>
+      <c r="K58" t="s">
+        <v>365</v>
+      </c>
+      <c r="L58" t="s">
+        <v>366</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>360</v>
+      </c>
+      <c r="O58" t="s">
+        <v>74</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>367</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>368</v>
+      </c>
+      <c r="J59" t="s">
+        <v>369</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s"/>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>370</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>371</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>372</v>
+      </c>
+      <c r="J60" t="s">
+        <v>373</v>
+      </c>
+      <c r="K60" t="s">
+        <v>374</v>
+      </c>
+      <c r="L60" t="s">
+        <v>375</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>376</v>
+      </c>
+      <c r="O60" t="s">
+        <v>74</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>377</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>378</v>
+      </c>
+      <c r="J61" t="s">
+        <v>379</v>
+      </c>
+      <c r="K61" t="s">
+        <v>380</v>
+      </c>
+      <c r="L61" t="s">
+        <v>381</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>382</v>
+      </c>
+      <c r="O61" t="s">
+        <v>67</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>384</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>385</v>
+      </c>
+      <c r="J62" t="s">
+        <v>386</v>
+      </c>
+      <c r="K62" t="s">
+        <v>387</v>
+      </c>
+      <c r="L62" t="s">
+        <v>388</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>382</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>390</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>391</v>
+      </c>
+      <c r="J63" t="s">
+        <v>392</v>
+      </c>
+      <c r="K63" t="s">
+        <v>393</v>
+      </c>
+      <c r="L63" t="s">
+        <v>394</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>395</v>
+      </c>
+      <c r="O63" t="s">
+        <v>120</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>396</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>397</v>
+      </c>
+      <c r="J64" t="s">
+        <v>398</v>
+      </c>
+      <c r="K64" t="s">
+        <v>399</v>
+      </c>
+      <c r="L64" t="s">
+        <v>400</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>401</v>
+      </c>
+      <c r="O64" t="s">
+        <v>120</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>402</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>403</v>
+      </c>
+      <c r="J65" t="s">
+        <v>404</v>
+      </c>
+      <c r="K65" t="s">
+        <v>405</v>
+      </c>
+      <c r="L65" t="s">
+        <v>406</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>407</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>409</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>410</v>
+      </c>
+      <c r="J66" t="s">
+        <v>411</v>
+      </c>
+      <c r="K66" t="s">
+        <v>412</v>
+      </c>
+      <c r="L66" t="s">
+        <v>413</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>414</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>415</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>416</v>
+      </c>
+      <c r="J67" t="s">
+        <v>417</v>
+      </c>
+      <c r="K67" t="s">
+        <v>418</v>
+      </c>
+      <c r="L67" t="s">
+        <v>419</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>420</v>
+      </c>
+      <c r="O67" t="s">
+        <v>74</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>421</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>422</v>
+      </c>
+      <c r="J68" t="s">
+        <v>423</v>
+      </c>
+      <c r="K68" t="s">
+        <v>424</v>
+      </c>
+      <c r="L68" t="s">
+        <v>425</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>426</v>
+      </c>
+      <c r="O68" t="s">
+        <v>120</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>428</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>429</v>
+      </c>
+      <c r="J69" t="s">
+        <v>430</v>
+      </c>
+      <c r="K69" t="s">
+        <v>431</v>
+      </c>
+      <c r="L69" t="s">
+        <v>432</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>433</v>
+      </c>
+      <c r="O69" t="s">
+        <v>120</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>434</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>435</v>
+      </c>
+      <c r="J70" t="s">
+        <v>436</v>
+      </c>
+      <c r="K70" t="s">
+        <v>437</v>
+      </c>
+      <c r="L70" t="s">
+        <v>438</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s">
+        <v>439</v>
+      </c>
+      <c r="O70" t="s">
+        <v>120</v>
+      </c>
+      <c r="P70" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>2</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>440</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>441</v>
+      </c>
+      <c r="J71" t="s">
+        <v>442</v>
+      </c>
+      <c r="K71" t="s">
+        <v>443</v>
+      </c>
+      <c r="L71" t="s">
+        <v>444</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>445</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>446</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>447</v>
+      </c>
+      <c r="J72" t="s">
+        <v>448</v>
+      </c>
+      <c r="K72" t="s">
+        <v>449</v>
+      </c>
+      <c r="L72" t="s">
+        <v>450</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>445</v>
+      </c>
+      <c r="O72" t="s">
+        <v>120</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>451</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>452</v>
+      </c>
+      <c r="J73" t="s">
+        <v>453</v>
+      </c>
+      <c r="K73" t="s">
+        <v>454</v>
+      </c>
+      <c r="L73" t="s">
+        <v>455</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>456</v>
+      </c>
+      <c r="O73" t="s">
+        <v>120</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>2</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
